--- a/para/Swi/Matlab_IGBT.xlsx
+++ b/para/Swi/Matlab_IGBT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/02_Herts/03_VRF/23_PE/05_PWM_Losses/para/Swi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1392" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A35AB767-C451-4652-AA5F-86241D01E403}"/>
+  <xr:revisionPtr revIDLastSave="1395" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92F04D66-0CA4-4CE0-9BDD-4CB05083993B}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="1800" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="163">
   <si>
     <t>Parameter</t>
   </si>
@@ -451,9 +451,6 @@
     <t>Equivalent Mosfet reverse capacitance Ciss = Cgd</t>
   </si>
   <si>
-    <t>On-State Resistance, Ron(Tj,Ice)/Rdson(Tj,Ids)</t>
-  </si>
-  <si>
     <t>Constant voltage drop across the switch during conduction, e.g. collector-emitter voltage (Vce) or drain-source voltage (Vds)</t>
   </si>
   <si>
@@ -512,6 +509,24 @@
   </si>
   <si>
     <t>On-State channel current</t>
+  </si>
+  <si>
+    <t>Gate voltage</t>
+  </si>
+  <si>
+    <t>Gate supply voltage</t>
+  </si>
+  <si>
+    <t>Vg</t>
+  </si>
+  <si>
+    <t>Gate resistance</t>
+  </si>
+  <si>
+    <t>Gate resistance of the FET</t>
+  </si>
+  <si>
+    <t>Rg</t>
   </si>
 </sst>
 </file>
@@ -890,7 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -939,6 +954,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -948,18 +974,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1058,7 +1072,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$B$32</c:f>
+              <c:f>electrical!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1093,7 +1107,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$33:$A$42</c:f>
+              <c:f>electrical!$A$35:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1132,7 +1146,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$B$33:$B$42</c:f>
+              <c:f>electrical!$B$35:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1178,7 +1192,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$C$32</c:f>
+              <c:f>electrical!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1213,7 +1227,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$33:$A$42</c:f>
+              <c:f>electrical!$A$35:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1252,7 +1266,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$C$33:$C$42</c:f>
+              <c:f>electrical!$C$35:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1298,7 +1312,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$D$32</c:f>
+              <c:f>electrical!$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1333,7 +1347,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$33:$A$42</c:f>
+              <c:f>electrical!$A$35:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1372,7 +1386,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$D$33:$D$42</c:f>
+              <c:f>electrical!$D$35:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1391,7 +1405,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$E$32</c:f>
+              <c:f>electrical!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1426,7 +1440,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$33:$A$42</c:f>
+              <c:f>electrical!$A$35:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1465,7 +1479,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$E$33:$E$42</c:f>
+              <c:f>electrical!$E$35:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1484,7 +1498,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$F$32</c:f>
+              <c:f>electrical!$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1519,7 +1533,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$33:$A$42</c:f>
+              <c:f>electrical!$A$35:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1558,7 +1572,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$F$33:$F$42</c:f>
+              <c:f>electrical!$F$35:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1577,7 +1591,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$G$32</c:f>
+              <c:f>electrical!$G$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1612,7 +1626,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$33:$A$42</c:f>
+              <c:f>electrical!$A$35:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1651,7 +1665,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$G$33:$G$42</c:f>
+              <c:f>electrical!$G$35:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1670,7 +1684,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$H$32</c:f>
+              <c:f>electrical!$H$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1711,7 +1725,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$33:$A$42</c:f>
+              <c:f>electrical!$A$35:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1750,7 +1764,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$H$33:$H$42</c:f>
+              <c:f>electrical!$H$35:$H$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1769,7 +1783,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$I$32</c:f>
+              <c:f>electrical!$I$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1810,7 +1824,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$33:$A$42</c:f>
+              <c:f>electrical!$A$35:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1849,7 +1863,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$I$33:$I$42</c:f>
+              <c:f>electrical!$I$35:$I$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1868,7 +1882,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$J$32</c:f>
+              <c:f>electrical!$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1909,7 +1923,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$33:$A$42</c:f>
+              <c:f>electrical!$A$35:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1948,7 +1962,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$J$33:$J$42</c:f>
+              <c:f>electrical!$J$35:$J$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1967,7 +1981,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$K$32</c:f>
+              <c:f>electrical!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2008,7 +2022,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$33:$A$42</c:f>
+              <c:f>electrical!$A$35:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2047,7 +2061,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$K$33:$K$42</c:f>
+              <c:f>electrical!$K$35:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3031,7 +3045,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$B$32</c:f>
+              <c:f>electrical!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3066,7 +3080,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$53:$A$62</c:f>
+              <c:f>electrical!$A$55:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3105,7 +3119,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$B$53:$B$62</c:f>
+              <c:f>electrical!$B$55:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3151,7 +3165,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$C$32</c:f>
+              <c:f>electrical!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3186,7 +3200,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$53:$A$62</c:f>
+              <c:f>electrical!$A$55:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3225,7 +3239,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$C$53:$C$62</c:f>
+              <c:f>electrical!$C$55:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3271,7 +3285,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$D$32</c:f>
+              <c:f>electrical!$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3306,7 +3320,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$53:$A$62</c:f>
+              <c:f>electrical!$A$55:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3345,7 +3359,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$D$53:$D$62</c:f>
+              <c:f>electrical!$D$55:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3364,7 +3378,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$E$32</c:f>
+              <c:f>electrical!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3399,7 +3413,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$53:$A$62</c:f>
+              <c:f>electrical!$A$55:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3438,7 +3452,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$E$53:$E$62</c:f>
+              <c:f>electrical!$E$55:$E$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3457,7 +3471,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$F$32</c:f>
+              <c:f>electrical!$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3492,7 +3506,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$53:$A$62</c:f>
+              <c:f>electrical!$A$55:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3531,7 +3545,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$F$53:$F$62</c:f>
+              <c:f>electrical!$F$55:$F$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3550,7 +3564,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$G$32</c:f>
+              <c:f>electrical!$G$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3585,7 +3599,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$53:$A$62</c:f>
+              <c:f>electrical!$A$55:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3624,7 +3638,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$G$53:$G$62</c:f>
+              <c:f>electrical!$G$55:$G$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3643,7 +3657,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$H$32</c:f>
+              <c:f>electrical!$H$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3684,7 +3698,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$53:$A$62</c:f>
+              <c:f>electrical!$A$55:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3723,7 +3737,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$H$53:$H$62</c:f>
+              <c:f>electrical!$H$55:$H$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3742,7 +3756,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$I$32</c:f>
+              <c:f>electrical!$I$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3783,7 +3797,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$53:$A$62</c:f>
+              <c:f>electrical!$A$55:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3822,7 +3836,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$I$53:$I$62</c:f>
+              <c:f>electrical!$I$55:$I$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3841,7 +3855,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$J$32</c:f>
+              <c:f>electrical!$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3882,7 +3896,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$53:$A$62</c:f>
+              <c:f>electrical!$A$55:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3921,7 +3935,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$J$53:$J$62</c:f>
+              <c:f>electrical!$J$55:$J$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3940,7 +3954,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$K$32</c:f>
+              <c:f>electrical!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3981,7 +3995,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$53:$A$62</c:f>
+              <c:f>electrical!$A$55:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4020,7 +4034,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$K$53:$K$62</c:f>
+              <c:f>electrical!$K$55:$K$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4444,7 +4458,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$B$32</c:f>
+              <c:f>electrical!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4479,7 +4493,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$73:$A$82</c:f>
+              <c:f>electrical!$A$75:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4518,7 +4532,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$B$73:$B$82</c:f>
+              <c:f>electrical!$B$75:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4564,7 +4578,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$C$32</c:f>
+              <c:f>electrical!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4599,7 +4613,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$73:$A$82</c:f>
+              <c:f>electrical!$A$75:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4638,7 +4652,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$C$73:$C$82</c:f>
+              <c:f>electrical!$C$75:$C$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4684,7 +4698,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$D$32</c:f>
+              <c:f>electrical!$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4719,7 +4733,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$73:$A$82</c:f>
+              <c:f>electrical!$A$75:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4758,7 +4772,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$D$73:$D$82</c:f>
+              <c:f>electrical!$D$75:$D$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4777,7 +4791,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$E$32</c:f>
+              <c:f>electrical!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4812,7 +4826,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$73:$A$82</c:f>
+              <c:f>electrical!$A$75:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4851,7 +4865,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$E$73:$E$82</c:f>
+              <c:f>electrical!$E$75:$E$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4870,7 +4884,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$F$32</c:f>
+              <c:f>electrical!$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4905,7 +4919,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$73:$A$82</c:f>
+              <c:f>electrical!$A$75:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4944,7 +4958,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$F$73:$F$82</c:f>
+              <c:f>electrical!$F$75:$F$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4963,7 +4977,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$G$32</c:f>
+              <c:f>electrical!$G$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4998,7 +5012,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$73:$A$82</c:f>
+              <c:f>electrical!$A$75:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5037,7 +5051,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$G$73:$G$82</c:f>
+              <c:f>electrical!$G$75:$G$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5056,7 +5070,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$H$32</c:f>
+              <c:f>electrical!$H$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5097,7 +5111,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$73:$A$82</c:f>
+              <c:f>electrical!$A$75:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5136,7 +5150,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$H$73:$H$82</c:f>
+              <c:f>electrical!$H$75:$H$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5155,7 +5169,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$I$32</c:f>
+              <c:f>electrical!$I$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5196,7 +5210,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$73:$A$82</c:f>
+              <c:f>electrical!$A$75:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5235,7 +5249,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$I$73:$I$82</c:f>
+              <c:f>electrical!$I$75:$I$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5254,7 +5268,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$J$32</c:f>
+              <c:f>electrical!$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5295,7 +5309,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$73:$A$82</c:f>
+              <c:f>electrical!$A$75:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5334,7 +5348,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$J$73:$J$82</c:f>
+              <c:f>electrical!$J$75:$J$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5353,7 +5367,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$K$32</c:f>
+              <c:f>electrical!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5394,7 +5408,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$73:$A$82</c:f>
+              <c:f>electrical!$A$75:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5433,7 +5447,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$K$73:$K$82</c:f>
+              <c:f>electrical!$K$75:$K$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5857,7 +5871,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$B$32</c:f>
+              <c:f>electrical!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5892,7 +5906,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$93:$A$102</c:f>
+              <c:f>electrical!$A$95:$A$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5931,7 +5945,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$B$93:$B$102</c:f>
+              <c:f>electrical!$B$95:$B$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5977,7 +5991,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$C$32</c:f>
+              <c:f>electrical!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6012,7 +6026,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$93:$A$102</c:f>
+              <c:f>electrical!$A$95:$A$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6051,7 +6065,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$C$93:$C$102</c:f>
+              <c:f>electrical!$C$95:$C$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6097,7 +6111,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$D$32</c:f>
+              <c:f>electrical!$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6132,7 +6146,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$93:$A$102</c:f>
+              <c:f>electrical!$A$95:$A$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6171,7 +6185,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$D$93:$D$102</c:f>
+              <c:f>electrical!$D$95:$D$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6190,7 +6204,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$E$32</c:f>
+              <c:f>electrical!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6225,7 +6239,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$93:$A$102</c:f>
+              <c:f>electrical!$A$95:$A$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6264,7 +6278,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$E$93:$E$102</c:f>
+              <c:f>electrical!$E$95:$E$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6283,7 +6297,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$F$32</c:f>
+              <c:f>electrical!$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6318,7 +6332,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$93:$A$102</c:f>
+              <c:f>electrical!$A$95:$A$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6357,7 +6371,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$F$93:$F$102</c:f>
+              <c:f>electrical!$F$95:$F$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6376,7 +6390,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$G$32</c:f>
+              <c:f>electrical!$G$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6411,7 +6425,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$93:$A$102</c:f>
+              <c:f>electrical!$A$95:$A$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6450,7 +6464,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$G$93:$G$102</c:f>
+              <c:f>electrical!$G$95:$G$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6469,7 +6483,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$H$32</c:f>
+              <c:f>electrical!$H$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6510,7 +6524,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$93:$A$102</c:f>
+              <c:f>electrical!$A$95:$A$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6549,7 +6563,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$H$93:$H$102</c:f>
+              <c:f>electrical!$H$95:$H$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6568,7 +6582,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$I$32</c:f>
+              <c:f>electrical!$I$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6609,7 +6623,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$93:$A$102</c:f>
+              <c:f>electrical!$A$95:$A$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6648,7 +6662,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$I$93:$I$102</c:f>
+              <c:f>electrical!$I$95:$I$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6667,7 +6681,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$J$32</c:f>
+              <c:f>electrical!$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6708,7 +6722,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$93:$A$102</c:f>
+              <c:f>electrical!$A$95:$A$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6747,7 +6761,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$J$93:$J$102</c:f>
+              <c:f>electrical!$J$95:$J$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6766,7 +6780,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$K$32</c:f>
+              <c:f>electrical!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6807,7 +6821,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$93:$A$102</c:f>
+              <c:f>electrical!$A$95:$A$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6846,7 +6860,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$K$93:$K$102</c:f>
+              <c:f>electrical!$K$95:$K$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7270,7 +7284,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$B$32</c:f>
+              <c:f>electrical!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7305,7 +7319,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$113:$A$122</c:f>
+              <c:f>electrical!$A$115:$A$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7344,7 +7358,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$B$113:$B$122</c:f>
+              <c:f>electrical!$B$115:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7390,7 +7404,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$C$32</c:f>
+              <c:f>electrical!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7425,7 +7439,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$113:$A$122</c:f>
+              <c:f>electrical!$A$115:$A$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7464,7 +7478,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$C$113:$C$122</c:f>
+              <c:f>electrical!$C$115:$C$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7510,7 +7524,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$D$32</c:f>
+              <c:f>electrical!$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7545,7 +7559,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$113:$A$122</c:f>
+              <c:f>electrical!$A$115:$A$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7584,7 +7598,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$D$113:$D$122</c:f>
+              <c:f>electrical!$D$115:$D$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7603,7 +7617,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$E$32</c:f>
+              <c:f>electrical!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7638,7 +7652,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$113:$A$122</c:f>
+              <c:f>electrical!$A$115:$A$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7677,7 +7691,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$E$113:$E$122</c:f>
+              <c:f>electrical!$E$115:$E$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7696,7 +7710,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$F$32</c:f>
+              <c:f>electrical!$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7731,7 +7745,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$113:$A$122</c:f>
+              <c:f>electrical!$A$115:$A$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7770,7 +7784,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$F$113:$F$122</c:f>
+              <c:f>electrical!$F$115:$F$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7789,7 +7803,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$G$32</c:f>
+              <c:f>electrical!$G$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7824,7 +7838,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$113:$A$122</c:f>
+              <c:f>electrical!$A$115:$A$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7863,7 +7877,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$G$113:$G$122</c:f>
+              <c:f>electrical!$G$115:$G$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7882,7 +7896,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$H$32</c:f>
+              <c:f>electrical!$H$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7923,7 +7937,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$113:$A$122</c:f>
+              <c:f>electrical!$A$115:$A$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7962,7 +7976,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$H$113:$H$122</c:f>
+              <c:f>electrical!$H$115:$H$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7981,7 +7995,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$I$32</c:f>
+              <c:f>electrical!$I$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8022,7 +8036,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$113:$A$122</c:f>
+              <c:f>electrical!$A$115:$A$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8061,7 +8075,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$I$113:$I$122</c:f>
+              <c:f>electrical!$I$115:$I$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8080,7 +8094,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$J$32</c:f>
+              <c:f>electrical!$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8121,7 +8135,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$113:$A$122</c:f>
+              <c:f>electrical!$A$115:$A$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8160,7 +8174,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$J$113:$J$122</c:f>
+              <c:f>electrical!$J$115:$J$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8179,7 +8193,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$K$32</c:f>
+              <c:f>electrical!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8220,7 +8234,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$113:$A$122</c:f>
+              <c:f>electrical!$A$115:$A$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8259,7 +8273,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$K$113:$K$122</c:f>
+              <c:f>electrical!$K$115:$K$124</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8683,7 +8697,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$B$32</c:f>
+              <c:f>electrical!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8718,7 +8732,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$133:$A$142</c:f>
+              <c:f>electrical!$A$135:$A$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8757,7 +8771,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$B$133:$B$142</c:f>
+              <c:f>electrical!$B$135:$B$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8800,7 +8814,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$C$32</c:f>
+              <c:f>electrical!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8835,7 +8849,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$133:$A$142</c:f>
+              <c:f>electrical!$A$135:$A$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8874,7 +8888,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$C$133:$C$142</c:f>
+              <c:f>electrical!$C$135:$C$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8917,7 +8931,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$D$32</c:f>
+              <c:f>electrical!$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8952,7 +8966,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$133:$A$142</c:f>
+              <c:f>electrical!$A$135:$A$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8991,7 +9005,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$D$133:$D$142</c:f>
+              <c:f>electrical!$D$135:$D$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9010,7 +9024,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$E$32</c:f>
+              <c:f>electrical!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9045,7 +9059,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$133:$A$142</c:f>
+              <c:f>electrical!$A$135:$A$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9084,7 +9098,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$E$133:$E$142</c:f>
+              <c:f>electrical!$E$135:$E$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9103,7 +9117,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$F$32</c:f>
+              <c:f>electrical!$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9138,7 +9152,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$133:$A$142</c:f>
+              <c:f>electrical!$A$135:$A$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9177,7 +9191,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$F$133:$F$142</c:f>
+              <c:f>electrical!$F$135:$F$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9196,7 +9210,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$G$32</c:f>
+              <c:f>electrical!$G$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9231,7 +9245,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$133:$A$142</c:f>
+              <c:f>electrical!$A$135:$A$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9270,7 +9284,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$G$133:$G$142</c:f>
+              <c:f>electrical!$G$135:$G$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9289,7 +9303,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$H$32</c:f>
+              <c:f>electrical!$H$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9330,7 +9344,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$133:$A$142</c:f>
+              <c:f>electrical!$A$135:$A$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9369,7 +9383,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$H$133:$H$142</c:f>
+              <c:f>electrical!$H$135:$H$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9388,7 +9402,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$I$32</c:f>
+              <c:f>electrical!$I$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9429,7 +9443,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$133:$A$142</c:f>
+              <c:f>electrical!$A$135:$A$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9468,7 +9482,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$I$133:$I$142</c:f>
+              <c:f>electrical!$I$135:$I$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9487,7 +9501,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$J$32</c:f>
+              <c:f>electrical!$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9528,7 +9542,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$133:$A$142</c:f>
+              <c:f>electrical!$A$135:$A$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9567,7 +9581,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$J$133:$J$142</c:f>
+              <c:f>electrical!$J$135:$J$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9586,7 +9600,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$K$32</c:f>
+              <c:f>electrical!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9627,7 +9641,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$133:$A$142</c:f>
+              <c:f>electrical!$A$135:$A$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9666,7 +9680,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$K$133:$K$142</c:f>
+              <c:f>electrical!$K$135:$K$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10090,7 +10104,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$B$32</c:f>
+              <c:f>electrical!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10125,7 +10139,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$153:$A$162</c:f>
+              <c:f>electrical!$A$155:$A$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10164,7 +10178,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$B$153:$B$162</c:f>
+              <c:f>electrical!$B$155:$B$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10207,7 +10221,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$C$32</c:f>
+              <c:f>electrical!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10242,7 +10256,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$153:$A$162</c:f>
+              <c:f>electrical!$A$155:$A$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10281,7 +10295,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$C$153:$C$162</c:f>
+              <c:f>electrical!$C$155:$C$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10324,7 +10338,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$D$32</c:f>
+              <c:f>electrical!$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10359,7 +10373,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$153:$A$162</c:f>
+              <c:f>electrical!$A$155:$A$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10398,7 +10412,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$D$153:$D$162</c:f>
+              <c:f>electrical!$D$155:$D$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10417,7 +10431,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$E$32</c:f>
+              <c:f>electrical!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10452,7 +10466,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$153:$A$162</c:f>
+              <c:f>electrical!$A$155:$A$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10491,7 +10505,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$E$153:$E$162</c:f>
+              <c:f>electrical!$E$155:$E$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10510,7 +10524,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$F$32</c:f>
+              <c:f>electrical!$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10545,7 +10559,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$153:$A$162</c:f>
+              <c:f>electrical!$A$155:$A$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10584,7 +10598,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$F$153:$F$162</c:f>
+              <c:f>electrical!$F$155:$F$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10603,7 +10617,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$G$32</c:f>
+              <c:f>electrical!$G$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10638,7 +10652,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$153:$A$162</c:f>
+              <c:f>electrical!$A$155:$A$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10677,7 +10691,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$G$153:$G$162</c:f>
+              <c:f>electrical!$G$155:$G$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10696,7 +10710,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$H$32</c:f>
+              <c:f>electrical!$H$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10737,7 +10751,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$153:$A$162</c:f>
+              <c:f>electrical!$A$155:$A$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10776,7 +10790,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$H$153:$H$162</c:f>
+              <c:f>electrical!$H$155:$H$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10795,7 +10809,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$I$32</c:f>
+              <c:f>electrical!$I$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10836,7 +10850,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$153:$A$162</c:f>
+              <c:f>electrical!$A$155:$A$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10875,7 +10889,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$I$153:$I$162</c:f>
+              <c:f>electrical!$I$155:$I$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10894,7 +10908,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$J$32</c:f>
+              <c:f>electrical!$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10935,7 +10949,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$153:$A$162</c:f>
+              <c:f>electrical!$A$155:$A$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10974,7 +10988,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$J$153:$J$162</c:f>
+              <c:f>electrical!$J$155:$J$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10993,7 +11007,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$K$32</c:f>
+              <c:f>electrical!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11034,7 +11048,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$153:$A$162</c:f>
+              <c:f>electrical!$A$155:$A$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11073,7 +11087,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$K$153:$K$162</c:f>
+              <c:f>electrical!$K$155:$K$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11497,7 +11511,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$B$32</c:f>
+              <c:f>electrical!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11532,7 +11546,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$173:$A$182</c:f>
+              <c:f>electrical!$A$175:$A$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11571,7 +11585,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$B$173:$B$182</c:f>
+              <c:f>electrical!$B$175:$B$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11614,7 +11628,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$C$32</c:f>
+              <c:f>electrical!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11649,7 +11663,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$173:$A$182</c:f>
+              <c:f>electrical!$A$175:$A$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11688,7 +11702,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$C$173:$C$182</c:f>
+              <c:f>electrical!$C$175:$C$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11731,7 +11745,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$D$32</c:f>
+              <c:f>electrical!$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11766,7 +11780,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$173:$A$182</c:f>
+              <c:f>electrical!$A$175:$A$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11805,7 +11819,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$D$173:$D$182</c:f>
+              <c:f>electrical!$D$175:$D$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11824,7 +11838,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$E$32</c:f>
+              <c:f>electrical!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11859,7 +11873,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$173:$A$182</c:f>
+              <c:f>electrical!$A$175:$A$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11898,7 +11912,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$E$173:$E$182</c:f>
+              <c:f>electrical!$E$175:$E$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11917,7 +11931,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$F$32</c:f>
+              <c:f>electrical!$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11952,7 +11966,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$173:$A$182</c:f>
+              <c:f>electrical!$A$175:$A$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11991,7 +12005,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$F$173:$F$182</c:f>
+              <c:f>electrical!$F$175:$F$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12010,7 +12024,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$G$32</c:f>
+              <c:f>electrical!$G$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12045,7 +12059,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$173:$A$182</c:f>
+              <c:f>electrical!$A$175:$A$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12084,7 +12098,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$G$173:$G$182</c:f>
+              <c:f>electrical!$G$175:$G$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12103,7 +12117,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$H$32</c:f>
+              <c:f>electrical!$H$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12144,7 +12158,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$173:$A$182</c:f>
+              <c:f>electrical!$A$175:$A$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12183,7 +12197,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$H$173:$H$182</c:f>
+              <c:f>electrical!$H$175:$H$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12202,7 +12216,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$I$32</c:f>
+              <c:f>electrical!$I$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12243,7 +12257,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$173:$A$182</c:f>
+              <c:f>electrical!$A$175:$A$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12282,7 +12296,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$I$173:$I$182</c:f>
+              <c:f>electrical!$I$175:$I$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12301,7 +12315,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$J$32</c:f>
+              <c:f>electrical!$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12342,7 +12356,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$173:$A$182</c:f>
+              <c:f>electrical!$A$175:$A$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12381,7 +12395,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$J$173:$J$182</c:f>
+              <c:f>electrical!$J$175:$J$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12400,7 +12414,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>electrical!$K$32</c:f>
+              <c:f>electrical!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12441,7 +12455,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>electrical!$A$173:$A$182</c:f>
+              <c:f>electrical!$A$175:$A$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12480,7 +12494,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>electrical!$K$173:$K$182</c:f>
+              <c:f>electrical!$K$175:$K$184</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -19929,10 +19943,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCB0370-656A-4BCA-B950-AA707D31C9FC}">
-  <dimension ref="A1:Q202"/>
+  <dimension ref="A1:Q184"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20149,16 +20163,16 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="16">
         <v>300</v>
@@ -20182,7 +20196,7 @@
         <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
@@ -20255,49 +20269,49 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="E10" s="16">
-        <v>1E-3</v>
+        <v>15</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="20"/>
       <c r="P10" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>98</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="16">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
@@ -20310,164 +20324,128 @@
       <c r="N11" s="18"/>
       <c r="O11" s="20"/>
       <c r="P11" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="16">
-        <v>25</v>
-      </c>
-      <c r="F12" s="17">
-        <v>25</v>
-      </c>
-      <c r="G12" s="17">
-        <v>125</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="21"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E13" s="16">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="21"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="E14" s="16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F14" s="17">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G14" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="17">
-        <v>1</v>
-      </c>
-      <c r="I14" s="17">
-        <v>5</v>
-      </c>
-      <c r="J14" s="17">
-        <v>10</v>
-      </c>
-      <c r="K14" s="17">
-        <v>20</v>
-      </c>
-      <c r="L14" s="17">
-        <v>40</v>
-      </c>
-      <c r="M14" s="17">
-        <v>70</v>
-      </c>
-      <c r="N14" s="17">
-        <v>100</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="21"/>
       <c r="P14" s="5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="E15" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="17">
-        <v>1</v>
-      </c>
-      <c r="J15" s="17">
-        <v>2</v>
-      </c>
-      <c r="K15" s="17">
-        <v>4</v>
-      </c>
-      <c r="L15" s="17">
-        <v>7</v>
-      </c>
-      <c r="M15" s="17">
-        <v>10</v>
-      </c>
-      <c r="N15" s="17">
-        <v>100</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="21"/>
       <c r="P15" s="5" t="s">
         <v>18</v>
@@ -20475,79 +20453,115 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E16" s="16">
-        <v>2E-8</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="17">
+        <v>1</v>
+      </c>
+      <c r="I16" s="17">
+        <v>5</v>
+      </c>
+      <c r="J16" s="17">
+        <v>10</v>
+      </c>
+      <c r="K16" s="17">
+        <v>20</v>
+      </c>
+      <c r="L16" s="17">
+        <v>40</v>
+      </c>
+      <c r="M16" s="17">
+        <v>70</v>
+      </c>
+      <c r="N16" s="17">
+        <v>100</v>
+      </c>
       <c r="O16" s="21"/>
       <c r="P16" s="5" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="E17" s="16">
-        <v>1E-8</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="17">
+        <v>2</v>
+      </c>
+      <c r="K17" s="17">
+        <v>4</v>
+      </c>
+      <c r="L17" s="17">
+        <v>7</v>
+      </c>
+      <c r="M17" s="17">
+        <v>10</v>
+      </c>
+      <c r="N17" s="17">
+        <v>100</v>
+      </c>
       <c r="O17" s="21"/>
       <c r="P17" s="5" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E18" s="16">
-        <v>5.9999999999999997E-7</v>
+        <v>2E-8</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -20565,19 +20579,19 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
         <v>96</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E19" s="16">
-        <v>1.7E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -20590,24 +20604,24 @@
       <c r="N19" s="17"/>
       <c r="O19" s="21"/>
       <c r="P19" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E20" s="16">
-        <v>5</v>
+        <v>5.9999999999999997E-7</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -20620,24 +20634,24 @@
       <c r="N20" s="17"/>
       <c r="O20" s="21"/>
       <c r="P20" s="5" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E21" s="16">
-        <v>6.7999999999999997E-9</v>
+        <v>1.7E-5</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -20650,24 +20664,24 @@
       <c r="N21" s="17"/>
       <c r="O21" s="21"/>
       <c r="P21" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E22" s="16">
-        <v>3.1999999999999998E-10</v>
+        <v>5</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -20680,24 +20694,24 @@
       <c r="N22" s="17"/>
       <c r="O22" s="21"/>
       <c r="P22" s="5" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
         <v>107</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E23" s="16">
-        <v>1.28E-10</v>
+        <v>6.7999999999999997E-9</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -20714,9 +20728,21 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="16"/>
+      <c r="A24" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="16">
+        <v>3.1999999999999998E-10</v>
+      </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -20727,152 +20753,160 @@
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="21"/>
-      <c r="P24" s="5"/>
+      <c r="P24" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="39"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="7"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1.28E-10</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="43" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="38"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="39"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B33" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="42"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
     </row>
-    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32"/>
-      <c r="B32" s="27">
-        <f t="shared" ref="B32" si="0">F$12</f>
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="32"/>
+      <c r="B34" s="27">
+        <f t="shared" ref="B34" si="0">F$14</f>
         <v>25</v>
       </c>
-      <c r="C32" s="27">
-        <f t="shared" ref="C32" si="1">G$12</f>
+      <c r="C34" s="27">
+        <f t="shared" ref="C34" si="1">G$14</f>
         <v>125</v>
       </c>
-      <c r="D32" s="27">
-        <f t="shared" ref="D32:K32" si="2">H$12</f>
+      <c r="D34" s="27">
+        <f t="shared" ref="D34:K34" si="2">H$14</f>
         <v>0</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E34" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F34" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G34" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H34" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I34" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J34" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K34" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29">
-        <f>F$14</f>
+    <row r="35" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29">
+        <f>F$16</f>
         <v>0</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B35" s="17">
         <v>0</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C35" s="17">
         <v>0</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="25"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="29">
-        <f>G$14</f>
-        <v>0.1</v>
-      </c>
-      <c r="B34" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="25"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="29">
-        <f>H$14</f>
-        <v>1</v>
-      </c>
-      <c r="B35" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="C35" s="17">
-        <v>0.7</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -20885,14 +20919,14 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="29">
-        <f>I$14</f>
-        <v>5</v>
+        <f>G$16</f>
+        <v>0.1</v>
       </c>
       <c r="B36" s="17">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="C36" s="17">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -20905,14 +20939,14 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
-        <f>J$14</f>
-        <v>10</v>
+        <f>H$16</f>
+        <v>1</v>
       </c>
       <c r="B37" s="17">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C37" s="17">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -20925,14 +20959,14 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
-        <f>K$14</f>
-        <v>20</v>
+        <f>I$16</f>
+        <v>5</v>
       </c>
       <c r="B38" s="17">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="C38" s="17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
@@ -20945,14 +20979,14 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="29">
-        <f>L$14</f>
-        <v>40</v>
+        <f>J$16</f>
+        <v>10</v>
       </c>
       <c r="B39" s="17">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C39" s="17">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
@@ -20965,14 +20999,14 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="29">
-        <f>M$14</f>
-        <v>70</v>
+        <f>K$16</f>
+        <v>20</v>
       </c>
       <c r="B40" s="17">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="C40" s="17">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
@@ -20985,14 +21019,14 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
-        <f>N$14</f>
-        <v>100</v>
+        <f>L$16</f>
+        <v>40</v>
       </c>
       <c r="B41" s="17">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="C41" s="17">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
@@ -21003,148 +21037,148 @@
       <c r="J41" s="17"/>
       <c r="K41" s="25"/>
     </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="30">
-        <f>O$14</f>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="29">
+        <f>M$16</f>
+        <v>70</v>
+      </c>
+      <c r="B42" s="17">
+        <v>2</v>
+      </c>
+      <c r="C42" s="17">
+        <v>2.4</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="25"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="29">
+        <f>N$16</f>
+        <v>100</v>
+      </c>
+      <c r="B43" s="17">
+        <v>2.4</v>
+      </c>
+      <c r="C43" s="17">
+        <v>2.8</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="25"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="30">
+        <f>O$16</f>
         <v>0</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="26"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="26"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="43" t="s">
+    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="45"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="44"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="31" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B53" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="42"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="47"/>
     </row>
-    <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="33"/>
-      <c r="B52" s="27">
-        <f t="shared" ref="B52" si="3">F$12</f>
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="33"/>
+      <c r="B54" s="27">
+        <f t="shared" ref="B54" si="3">F$14</f>
         <v>25</v>
       </c>
-      <c r="C52" s="27">
-        <f t="shared" ref="C52" si="4">G$12</f>
+      <c r="C54" s="27">
+        <f t="shared" ref="C54" si="4">G$14</f>
         <v>125</v>
       </c>
-      <c r="D52" s="27">
-        <f t="shared" ref="D52" si="5">H$12</f>
+      <c r="D54" s="27">
+        <f t="shared" ref="D54" si="5">H$14</f>
         <v>0</v>
       </c>
-      <c r="E52" s="27">
-        <f t="shared" ref="E52" si="6">I$12</f>
+      <c r="E54" s="27">
+        <f t="shared" ref="E54" si="6">I$14</f>
         <v>0</v>
       </c>
-      <c r="F52" s="27">
-        <f t="shared" ref="F52" si="7">J$12</f>
+      <c r="F54" s="27">
+        <f t="shared" ref="F54" si="7">J$14</f>
         <v>0</v>
       </c>
-      <c r="G52" s="27">
-        <f t="shared" ref="G52" si="8">K$12</f>
+      <c r="G54" s="27">
+        <f t="shared" ref="G54" si="8">K$14</f>
         <v>0</v>
       </c>
-      <c r="H52" s="27">
-        <f t="shared" ref="H52" si="9">L$12</f>
+      <c r="H54" s="27">
+        <f t="shared" ref="H54" si="9">L$14</f>
         <v>0</v>
       </c>
-      <c r="I52" s="27">
-        <f t="shared" ref="I52" si="10">M$12</f>
+      <c r="I54" s="27">
+        <f t="shared" ref="I54" si="10">M$14</f>
         <v>0</v>
       </c>
-      <c r="J52" s="27">
-        <f t="shared" ref="J52" si="11">N$12</f>
+      <c r="J54" s="27">
+        <f t="shared" ref="J54" si="11">N$14</f>
         <v>0</v>
       </c>
-      <c r="K52" s="28">
-        <f t="shared" ref="K52" si="12">O$12</f>
+      <c r="K54" s="28">
+        <f t="shared" ref="K54" si="12">O$14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="29">
-        <f>F$14</f>
+    <row r="55" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="29">
+        <f>F$16</f>
         <v>0</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B55" s="17">
         <v>0</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C55" s="17">
         <v>0</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="25"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="29">
-        <f>G$14</f>
-        <v>0.1</v>
-      </c>
-      <c r="B54" s="17">
-        <v>2.3999999999999999E-6</v>
-      </c>
-      <c r="C54" s="17">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="25"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="29">
-        <f>H$14</f>
-        <v>1</v>
-      </c>
-      <c r="B55" s="17">
-        <v>2.4000000000000001E-5</v>
-      </c>
-      <c r="C55" s="17">
-        <v>3.0000000000000001E-5</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
@@ -21157,14 +21191,14 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
-        <f>I$14</f>
-        <v>5</v>
+        <f>G$16</f>
+        <v>0.1</v>
       </c>
       <c r="B56" s="17">
-        <v>1.2E-4</v>
+        <v>2.3999999999999999E-6</v>
       </c>
       <c r="C56" s="17">
-        <v>1.4999999999999999E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
@@ -21177,14 +21211,14 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
-        <f>J$14</f>
-        <v>10</v>
+        <f>H$16</f>
+        <v>1</v>
       </c>
       <c r="B57" s="17">
-        <v>2.0000000000000001E-4</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="C57" s="17">
-        <v>2.5000000000000001E-4</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
@@ -21197,14 +21231,14 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
-        <f>K$14</f>
-        <v>20</v>
+        <f>I$16</f>
+        <v>5</v>
       </c>
       <c r="B58" s="17">
-        <v>4.8000000000000001E-4</v>
+        <v>1.2E-4</v>
       </c>
       <c r="C58" s="17">
-        <v>5.9999999999999995E-4</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
@@ -21217,14 +21251,14 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
-        <f>L$14</f>
-        <v>40</v>
+        <f>J$16</f>
+        <v>10</v>
       </c>
       <c r="B59" s="17">
-        <v>1.0400000000000001E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="C59" s="17">
-        <v>1.3000000000000002E-3</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
@@ -21237,14 +21271,14 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
-        <f>M$14</f>
-        <v>70</v>
+        <f>K$16</f>
+        <v>20</v>
       </c>
       <c r="B60" s="17">
-        <v>2.16E-3</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="C60" s="17">
-        <v>2.7000000000000001E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
@@ -21257,14 +21291,14 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
-        <f>N$14</f>
-        <v>100</v>
+        <f>L$16</f>
+        <v>40</v>
       </c>
       <c r="B61" s="17">
-        <v>3.2400000000000003E-3</v>
+        <v>1.0400000000000001E-3</v>
       </c>
       <c r="C61" s="17">
-        <v>4.0499999999999998E-3</v>
+        <v>1.3000000000000002E-3</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
@@ -21275,148 +21309,148 @@
       <c r="J61" s="17"/>
       <c r="K61" s="25"/>
     </row>
-    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="30">
-        <f>O$14</f>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="29">
+        <f>M$16</f>
+        <v>70</v>
+      </c>
+      <c r="B62" s="17">
+        <v>2.16E-3</v>
+      </c>
+      <c r="C62" s="17">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="25"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="29">
+        <f>N$16</f>
+        <v>100</v>
+      </c>
+      <c r="B63" s="17">
+        <v>3.2400000000000003E-3</v>
+      </c>
+      <c r="C63" s="17">
+        <v>4.0499999999999998E-3</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="25"/>
+    </row>
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="30">
+        <f>O$16</f>
         <v>0</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="26"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="26"/>
     </row>
-    <row r="69" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="43" t="s">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="45"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="44"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="31" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B73" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="42"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="47"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="34"/>
-      <c r="B72" s="27">
-        <f t="shared" ref="B72" si="13">F$12</f>
+    <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="34"/>
+      <c r="B74" s="27">
+        <f t="shared" ref="B74" si="13">F$14</f>
         <v>25</v>
       </c>
-      <c r="C72" s="27">
-        <f t="shared" ref="C72" si="14">G$12</f>
+      <c r="C74" s="27">
+        <f t="shared" ref="C74" si="14">G$14</f>
         <v>125</v>
       </c>
-      <c r="D72" s="27">
-        <f t="shared" ref="D72" si="15">H$12</f>
+      <c r="D74" s="27">
+        <f t="shared" ref="D74" si="15">H$14</f>
         <v>0</v>
       </c>
-      <c r="E72" s="27">
-        <f t="shared" ref="E72" si="16">I$12</f>
+      <c r="E74" s="27">
+        <f t="shared" ref="E74" si="16">I$14</f>
         <v>0</v>
       </c>
-      <c r="F72" s="27">
-        <f t="shared" ref="F72" si="17">J$12</f>
+      <c r="F74" s="27">
+        <f t="shared" ref="F74" si="17">J$14</f>
         <v>0</v>
       </c>
-      <c r="G72" s="27">
-        <f t="shared" ref="G72" si="18">K$12</f>
+      <c r="G74" s="27">
+        <f t="shared" ref="G74" si="18">K$14</f>
         <v>0</v>
       </c>
-      <c r="H72" s="27">
-        <f t="shared" ref="H72" si="19">L$12</f>
+      <c r="H74" s="27">
+        <f t="shared" ref="H74" si="19">L$14</f>
         <v>0</v>
       </c>
-      <c r="I72" s="27">
-        <f t="shared" ref="I72" si="20">M$12</f>
+      <c r="I74" s="27">
+        <f t="shared" ref="I74" si="20">M$14</f>
         <v>0</v>
       </c>
-      <c r="J72" s="27">
-        <f t="shared" ref="J72" si="21">N$12</f>
+      <c r="J74" s="27">
+        <f t="shared" ref="J74" si="21">N$14</f>
         <v>0</v>
       </c>
-      <c r="K72" s="28">
-        <f t="shared" ref="K72" si="22">O$12</f>
+      <c r="K74" s="28">
+        <f t="shared" ref="K74" si="22">O$14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="29">
-        <f>F$14</f>
+    <row r="75" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="29">
+        <f>F$16</f>
         <v>0</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B75" s="17">
         <v>0</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C75" s="17">
         <v>0</v>
-      </c>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="25"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="29">
-        <f>G$14</f>
-        <v>0.1</v>
-      </c>
-      <c r="B74" s="17">
-        <v>6.9999999999999997E-7</v>
-      </c>
-      <c r="C74" s="17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="25"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="29">
-        <f>H$14</f>
-        <v>1</v>
-      </c>
-      <c r="B75" s="17">
-        <v>6.6000000000000003E-6</v>
-      </c>
-      <c r="C75" s="17">
-        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -21429,14 +21463,14 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="29">
-        <f>I$14</f>
-        <v>5</v>
+        <f>G$16</f>
+        <v>0.1</v>
       </c>
       <c r="B76" s="17">
-        <v>3.3000000000000003E-5</v>
+        <v>6.9999999999999997E-7</v>
       </c>
       <c r="C76" s="17">
-        <v>5.0000000000000002E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
@@ -21449,14 +21483,14 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="29">
-        <f>J$14</f>
-        <v>10</v>
+        <f>H$16</f>
+        <v>1</v>
       </c>
       <c r="B77" s="17">
-        <v>6.6000000000000005E-5</v>
+        <v>6.6000000000000003E-6</v>
       </c>
       <c r="C77" s="17">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -21469,14 +21503,14 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="29">
-        <f>K$14</f>
-        <v>20</v>
+        <f>I$16</f>
+        <v>5</v>
       </c>
       <c r="B78" s="17">
-        <v>1.7000000000000001E-4</v>
+        <v>3.3000000000000003E-5</v>
       </c>
       <c r="C78" s="17">
-        <v>2.5000000000000001E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
@@ -21489,14 +21523,14 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="29">
-        <f>L$14</f>
-        <v>40</v>
+        <f>J$16</f>
+        <v>10</v>
       </c>
       <c r="B79" s="17">
-        <v>3.3E-4</v>
+        <v>6.6000000000000005E-5</v>
       </c>
       <c r="C79" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
@@ -21509,14 +21543,14 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="29">
-        <f>M$14</f>
-        <v>70</v>
+        <f>K$16</f>
+        <v>20</v>
       </c>
       <c r="B80" s="17">
-        <v>8.3000000000000001E-4</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="C80" s="17">
-        <v>1.1999999999999999E-3</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
@@ -21529,14 +21563,14 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="29">
-        <f>N$14</f>
-        <v>100</v>
+        <f>L$16</f>
+        <v>40</v>
       </c>
       <c r="B81" s="17">
-        <v>1.5E-3</v>
+        <v>3.3E-4</v>
       </c>
       <c r="C81" s="17">
-        <v>2.2000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
@@ -21547,148 +21581,148 @@
       <c r="J81" s="17"/>
       <c r="K81" s="25"/>
     </row>
-    <row r="82" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="30">
-        <f>O$14</f>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="29">
+        <f>M$16</f>
+        <v>70</v>
+      </c>
+      <c r="B82" s="17">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="C82" s="17">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="25"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="29">
+        <f>N$16</f>
+        <v>100</v>
+      </c>
+      <c r="B83" s="17">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C83" s="17">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="25"/>
+    </row>
+    <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="30">
+        <f>O$16</f>
         <v>0</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="26"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="26"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="43" t="s">
+    <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="45"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="44"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="31" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="40" t="s">
+      <c r="B93" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="42"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="46"/>
+      <c r="K93" s="47"/>
     </row>
-    <row r="92" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="32"/>
-      <c r="B92" s="27">
-        <f t="shared" ref="B92" si="23">F$12</f>
+    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="32"/>
+      <c r="B94" s="27">
+        <f t="shared" ref="B94" si="23">F$14</f>
         <v>25</v>
       </c>
-      <c r="C92" s="27">
-        <f t="shared" ref="C92" si="24">G$12</f>
+      <c r="C94" s="27">
+        <f t="shared" ref="C94" si="24">G$14</f>
         <v>125</v>
       </c>
-      <c r="D92" s="27">
-        <f t="shared" ref="D92" si="25">H$12</f>
+      <c r="D94" s="27">
+        <f t="shared" ref="D94" si="25">H$14</f>
         <v>0</v>
       </c>
-      <c r="E92" s="27">
-        <f t="shared" ref="E92" si="26">I$12</f>
+      <c r="E94" s="27">
+        <f t="shared" ref="E94" si="26">I$14</f>
         <v>0</v>
       </c>
-      <c r="F92" s="27">
-        <f t="shared" ref="F92" si="27">J$12</f>
+      <c r="F94" s="27">
+        <f t="shared" ref="F94" si="27">J$14</f>
         <v>0</v>
       </c>
-      <c r="G92" s="27">
-        <f t="shared" ref="G92" si="28">K$12</f>
+      <c r="G94" s="27">
+        <f t="shared" ref="G94" si="28">K$14</f>
         <v>0</v>
       </c>
-      <c r="H92" s="27">
-        <f t="shared" ref="H92" si="29">L$12</f>
+      <c r="H94" s="27">
+        <f t="shared" ref="H94" si="29">L$14</f>
         <v>0</v>
       </c>
-      <c r="I92" s="27">
-        <f t="shared" ref="I92" si="30">M$12</f>
+      <c r="I94" s="27">
+        <f t="shared" ref="I94" si="30">M$14</f>
         <v>0</v>
       </c>
-      <c r="J92" s="27">
-        <f t="shared" ref="J92" si="31">N$12</f>
+      <c r="J94" s="27">
+        <f t="shared" ref="J94" si="31">N$14</f>
         <v>0</v>
       </c>
-      <c r="K92" s="28">
-        <f t="shared" ref="K92" si="32">O$12</f>
+      <c r="K94" s="28">
+        <f t="shared" ref="K94" si="32">O$14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="29">
-        <f>F$14</f>
+    <row r="95" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="29">
+        <f>F$16</f>
         <v>0</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B95" s="17">
         <v>0</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C95" s="17">
         <v>0</v>
-      </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="25"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="29">
-        <f>G$14</f>
-        <v>0.1</v>
-      </c>
-      <c r="B94" s="17">
-        <v>3.1E-6</v>
-      </c>
-      <c r="C94" s="17">
-        <v>4.1000000000000006E-6</v>
-      </c>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="25"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="29">
-        <f>H$14</f>
-        <v>1</v>
-      </c>
-      <c r="B95" s="17">
-        <v>2.1000000000000002E-5</v>
-      </c>
-      <c r="C95" s="17">
-        <v>4.2999999999999995E-5</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
@@ -21701,14 +21735,14 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="29">
-        <f>I$14</f>
-        <v>5</v>
+        <f>G$16</f>
+        <v>0.1</v>
       </c>
       <c r="B96" s="17">
-        <v>1.1E-4</v>
+        <v>3.1E-6</v>
       </c>
       <c r="C96" s="17">
-        <v>2.0000000000000001E-4</v>
+        <v>4.1000000000000006E-6</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
@@ -21721,14 +21755,14 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="29">
-        <f>J$14</f>
-        <v>10</v>
+        <f>H$16</f>
+        <v>1</v>
       </c>
       <c r="B97" s="17">
-        <v>2.1000000000000001E-4</v>
+        <v>2.1000000000000002E-5</v>
       </c>
       <c r="C97" s="17">
-        <v>3.9000000000000005E-4</v>
+        <v>4.2999999999999995E-5</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
@@ -21741,14 +21775,14 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="29">
-        <f>K$14</f>
-        <v>20</v>
+        <f>I$16</f>
+        <v>5</v>
       </c>
       <c r="B98" s="17">
-        <v>4.2999999999999999E-4</v>
+        <v>1.1E-4</v>
       </c>
       <c r="C98" s="17">
-        <v>7.7000000000000007E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
@@ -21761,14 +21795,14 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
-        <f>L$14</f>
-        <v>40</v>
+        <f>J$16</f>
+        <v>10</v>
       </c>
       <c r="B99" s="17">
-        <v>9.8999999999999999E-4</v>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="C99" s="17">
-        <v>1.5400000000000001E-3</v>
+        <v>3.9000000000000005E-4</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
@@ -21781,14 +21815,14 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="29">
-        <f>M$14</f>
-        <v>70</v>
+        <f>K$16</f>
+        <v>20</v>
       </c>
       <c r="B100" s="17">
-        <v>1.7099999999999999E-3</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="C100" s="17">
-        <v>2.2699999999999999E-3</v>
+        <v>7.7000000000000007E-4</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
@@ -21801,14 +21835,14 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
-        <f>N$14</f>
-        <v>100</v>
+        <f>L$16</f>
+        <v>40</v>
       </c>
       <c r="B101" s="17">
-        <v>3.078E-3</v>
+        <v>9.8999999999999999E-4</v>
       </c>
       <c r="C101" s="17">
-        <v>4.0800000000000003E-3</v>
+        <v>1.5400000000000001E-3</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
@@ -21819,153 +21853,151 @@
       <c r="J101" s="17"/>
       <c r="K101" s="25"/>
     </row>
-    <row r="102" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="30">
-        <f>O$14</f>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="29">
+        <f>M$16</f>
+        <v>70</v>
+      </c>
+      <c r="B102" s="17">
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="C102" s="17">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="25"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="29">
+        <f>N$16</f>
+        <v>100</v>
+      </c>
+      <c r="B103" s="17">
+        <v>3.078E-3</v>
+      </c>
+      <c r="C103" s="17">
+        <v>4.0800000000000003E-3</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="25"/>
+    </row>
+    <row r="104" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="30">
+        <f>O$16</f>
         <v>0</v>
       </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="26"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="26"/>
     </row>
-    <row r="109" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="43" t="s">
+    <row r="111" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B110" s="44"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="44"/>
-      <c r="I110" s="44"/>
-      <c r="J110" s="44"/>
-      <c r="K110" s="45"/>
-      <c r="L110" s="2"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="43"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="2"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="31" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="40" t="s">
+      <c r="B113" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
-      <c r="K111" s="42"/>
-      <c r="L111" s="1"/>
-    </row>
-    <row r="112" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="32"/>
-      <c r="B112" s="27">
-        <f t="shared" ref="B112" si="33">F$12</f>
-        <v>25</v>
-      </c>
-      <c r="C112" s="27">
-        <f t="shared" ref="C112" si="34">G$12</f>
-        <v>125</v>
-      </c>
-      <c r="D112" s="27">
-        <f t="shared" ref="D112" si="35">H$12</f>
-        <v>0</v>
-      </c>
-      <c r="E112" s="27">
-        <f t="shared" ref="E112" si="36">I$12</f>
-        <v>0</v>
-      </c>
-      <c r="F112" s="27">
-        <f t="shared" ref="F112" si="37">J$12</f>
-        <v>0</v>
-      </c>
-      <c r="G112" s="27">
-        <f t="shared" ref="G112" si="38">K$12</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="27">
-        <f t="shared" ref="H112" si="39">L$12</f>
-        <v>0</v>
-      </c>
-      <c r="I112" s="27">
-        <f t="shared" ref="I112" si="40">M$12</f>
-        <v>0</v>
-      </c>
-      <c r="J112" s="27">
-        <f t="shared" ref="J112" si="41">N$12</f>
-        <v>0</v>
-      </c>
-      <c r="K112" s="28">
-        <f t="shared" ref="K112" si="42">O$12</f>
-        <v>0</v>
-      </c>
-      <c r="L112" s="1"/>
-    </row>
-    <row r="113" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="29">
-        <f>F$15</f>
-        <v>0.1</v>
-      </c>
-      <c r="B113" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="C113" s="17">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="25"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
+      <c r="J113" s="46"/>
+      <c r="K113" s="47"/>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="29">
-        <f>G$15</f>
-        <v>0.2</v>
-      </c>
-      <c r="B114" s="17">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C114" s="17">
-        <v>0.68</v>
-      </c>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="25"/>
+    <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="32"/>
+      <c r="B114" s="27">
+        <f t="shared" ref="B114" si="33">F$14</f>
+        <v>25</v>
+      </c>
+      <c r="C114" s="27">
+        <f t="shared" ref="C114" si="34">G$14</f>
+        <v>125</v>
+      </c>
+      <c r="D114" s="27">
+        <f t="shared" ref="D114" si="35">H$14</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="27">
+        <f t="shared" ref="E114" si="36">I$14</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="27">
+        <f t="shared" ref="F114" si="37">J$14</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="27">
+        <f t="shared" ref="G114" si="38">K$14</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="27">
+        <f t="shared" ref="H114" si="39">L$14</f>
+        <v>0</v>
+      </c>
+      <c r="I114" s="27">
+        <f t="shared" ref="I114" si="40">M$14</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="27">
+        <f t="shared" ref="J114" si="41">N$14</f>
+        <v>0</v>
+      </c>
+      <c r="K114" s="28">
+        <f t="shared" ref="K114" si="42">O$14</f>
+        <v>0</v>
+      </c>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A115" s="29">
-        <f>H$15</f>
-        <v>0.5</v>
+        <f>F$17</f>
+        <v>0.1</v>
       </c>
       <c r="B115" s="17">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="C115" s="17">
-        <v>0.75</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="17"/>
@@ -21979,14 +22011,14 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="29">
-        <f>I$15</f>
-        <v>1</v>
+        <f>G$17</f>
+        <v>0.2</v>
       </c>
       <c r="B116" s="17">
-        <v>1.5</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C116" s="17">
-        <v>1.1000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="17"/>
@@ -22000,14 +22032,14 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
-        <f>J$15</f>
-        <v>2</v>
+        <f>H$17</f>
+        <v>0.5</v>
       </c>
       <c r="B117" s="17">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="C117" s="17">
-        <v>1.38</v>
+        <v>0.75</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="17"/>
@@ -22021,14 +22053,14 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="29">
-        <f>K$15</f>
-        <v>4</v>
+        <f>I$17</f>
+        <v>1</v>
       </c>
       <c r="B118" s="17">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="C118" s="17">
-        <v>1.77</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
@@ -22042,14 +22074,14 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="29">
-        <f>L$15</f>
-        <v>7</v>
+        <f>J$17</f>
+        <v>2</v>
       </c>
       <c r="B119" s="17">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="C119" s="17">
-        <v>2.27</v>
+        <v>1.38</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="17"/>
@@ -22063,14 +22095,14 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="29">
-        <f>M$15</f>
-        <v>10</v>
+        <f>K$17</f>
+        <v>4</v>
       </c>
       <c r="B120" s="17">
-        <v>2.85</v>
+        <v>2.17</v>
       </c>
       <c r="C120" s="17">
-        <v>2.7</v>
+        <v>1.77</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="17"/>
@@ -22084,14 +22116,14 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
-        <f>N$15</f>
-        <v>100</v>
+        <f>L$17</f>
+        <v>7</v>
       </c>
       <c r="B121" s="17">
-        <v>10</v>
+        <v>2.6</v>
       </c>
       <c r="C121" s="17">
-        <v>12.9</v>
+        <v>2.27</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
@@ -22103,149 +22135,151 @@
       <c r="K121" s="25"/>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="30">
-        <f>O$15</f>
-        <v>0</v>
-      </c>
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="23"/>
-      <c r="J122" s="23"/>
-      <c r="K122" s="26"/>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="29">
+        <f>M$17</f>
+        <v>10</v>
+      </c>
+      <c r="B122" s="17">
+        <v>2.85</v>
+      </c>
+      <c r="C122" s="17">
+        <v>2.7</v>
+      </c>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="25"/>
       <c r="L122" s="1"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="B130" s="44"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="44"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="44"/>
-      <c r="I130" s="44"/>
-      <c r="J130" s="44"/>
-      <c r="K130" s="45"/>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="29">
+        <f>N$17</f>
+        <v>100</v>
+      </c>
+      <c r="B123" s="17">
+        <v>10</v>
+      </c>
+      <c r="C123" s="17">
+        <v>12.9</v>
+      </c>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="25"/>
+      <c r="L123" s="1"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B131" s="40" t="s">
+    <row r="124" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="30">
+        <f>O$17</f>
+        <v>0</v>
+      </c>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="23"/>
+      <c r="J124" s="23"/>
+      <c r="K124" s="26"/>
+      <c r="L124" s="1"/>
+    </row>
+    <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="43"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="43"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="43"/>
+      <c r="I132" s="43"/>
+      <c r="J132" s="43"/>
+      <c r="K132" s="44"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C131" s="41"/>
-      <c r="D131" s="41"/>
-      <c r="E131" s="41"/>
-      <c r="F131" s="41"/>
-      <c r="G131" s="41"/>
-      <c r="H131" s="41"/>
-      <c r="I131" s="41"/>
-      <c r="J131" s="41"/>
-      <c r="K131" s="42"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="46"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="46"/>
+      <c r="I133" s="46"/>
+      <c r="J133" s="46"/>
+      <c r="K133" s="47"/>
     </row>
-    <row r="132" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="32"/>
-      <c r="B132" s="27">
-        <f t="shared" ref="B132" si="43">F$12</f>
+    <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="32"/>
+      <c r="B134" s="27">
+        <f t="shared" ref="B134" si="43">F$14</f>
         <v>25</v>
       </c>
-      <c r="C132" s="27">
-        <f t="shared" ref="C132" si="44">G$12</f>
+      <c r="C134" s="27">
+        <f t="shared" ref="C134" si="44">G$14</f>
         <v>125</v>
       </c>
-      <c r="D132" s="27">
-        <f t="shared" ref="D132" si="45">H$12</f>
+      <c r="D134" s="27">
+        <f t="shared" ref="D134" si="45">H$14</f>
         <v>0</v>
       </c>
-      <c r="E132" s="27">
-        <f t="shared" ref="E132" si="46">I$12</f>
+      <c r="E134" s="27">
+        <f t="shared" ref="E134" si="46">I$14</f>
         <v>0</v>
       </c>
-      <c r="F132" s="27">
-        <f t="shared" ref="F132" si="47">J$12</f>
+      <c r="F134" s="27">
+        <f t="shared" ref="F134" si="47">J$14</f>
         <v>0</v>
       </c>
-      <c r="G132" s="27">
-        <f t="shared" ref="G132" si="48">K$12</f>
+      <c r="G134" s="27">
+        <f t="shared" ref="G134" si="48">K$14</f>
         <v>0</v>
       </c>
-      <c r="H132" s="27">
-        <f t="shared" ref="H132" si="49">L$12</f>
+      <c r="H134" s="27">
+        <f t="shared" ref="H134" si="49">L$14</f>
         <v>0</v>
       </c>
-      <c r="I132" s="27">
-        <f t="shared" ref="I132" si="50">M$12</f>
+      <c r="I134" s="27">
+        <f t="shared" ref="I134" si="50">M$14</f>
         <v>0</v>
       </c>
-      <c r="J132" s="27">
-        <f t="shared" ref="J132" si="51">N$12</f>
+      <c r="J134" s="27">
+        <f t="shared" ref="J134" si="51">N$14</f>
         <v>0</v>
       </c>
-      <c r="K132" s="28">
-        <f t="shared" ref="K132" si="52">O$12</f>
+      <c r="K134" s="28">
+        <f t="shared" ref="K134" si="52">O$14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="29">
+    <row r="135" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="29">
         <f>F$8</f>
         <v>0</v>
       </c>
-      <c r="B133" s="17">
+      <c r="B135" s="17">
         <v>1.0999999999999999E-8</v>
       </c>
-      <c r="C133" s="17">
+      <c r="C135" s="17">
         <v>1.0999999999999999E-8</v>
-      </c>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="17"/>
-      <c r="G133" s="17"/>
-      <c r="H133" s="17"/>
-      <c r="I133" s="17"/>
-      <c r="J133" s="17"/>
-      <c r="K133" s="25"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="29">
-        <f>G$8</f>
-        <v>1</v>
-      </c>
-      <c r="B134" s="17">
-        <v>1E-8</v>
-      </c>
-      <c r="C134" s="17">
-        <v>1E-8</v>
-      </c>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
-      <c r="H134" s="17"/>
-      <c r="I134" s="17"/>
-      <c r="J134" s="17"/>
-      <c r="K134" s="25"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="29">
-        <f>H$8</f>
-        <v>10</v>
-      </c>
-      <c r="B135" s="17">
-        <v>7.4999999999999993E-9</v>
-      </c>
-      <c r="C135" s="17">
-        <v>7.4999999999999993E-9</v>
       </c>
       <c r="D135" s="17"/>
       <c r="E135" s="17"/>
@@ -22258,14 +22292,14 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="29">
-        <f>I$8</f>
-        <v>20</v>
+        <f>G$8</f>
+        <v>1</v>
       </c>
       <c r="B136" s="17">
-        <v>7.2E-9</v>
+        <v>1E-8</v>
       </c>
       <c r="C136" s="17">
-        <v>7.2E-9</v>
+        <v>1E-8</v>
       </c>
       <c r="D136" s="17"/>
       <c r="E136" s="17"/>
@@ -22278,14 +22312,14 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="29">
-        <f>J$8</f>
-        <v>50</v>
+        <f>H$8</f>
+        <v>10</v>
       </c>
       <c r="B137" s="17">
-        <v>6.9999999999999998E-9</v>
+        <v>7.4999999999999993E-9</v>
       </c>
       <c r="C137" s="17">
-        <v>6.9999999999999998E-9</v>
+        <v>7.4999999999999993E-9</v>
       </c>
       <c r="D137" s="17"/>
       <c r="E137" s="17"/>
@@ -22298,14 +22332,14 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="29">
-        <f>K$8</f>
-        <v>100</v>
+        <f>I$8</f>
+        <v>20</v>
       </c>
       <c r="B138" s="17">
-        <v>6.9999999999999998E-9</v>
+        <v>7.2E-9</v>
       </c>
       <c r="C138" s="17">
-        <v>6.9999999999999998E-9</v>
+        <v>7.2E-9</v>
       </c>
       <c r="D138" s="17"/>
       <c r="E138" s="17"/>
@@ -22318,8 +22352,8 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="29">
-        <f>L$8</f>
-        <v>200</v>
+        <f>J$8</f>
+        <v>50</v>
       </c>
       <c r="B139" s="17">
         <v>6.9999999999999998E-9</v>
@@ -22338,8 +22372,8 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="29">
-        <f>M$8</f>
-        <v>500</v>
+        <f>K$8</f>
+        <v>100</v>
       </c>
       <c r="B140" s="17">
         <v>6.9999999999999998E-9</v>
@@ -22358,11 +22392,15 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="29">
-        <f>N$8</f>
-        <v>0</v>
-      </c>
-      <c r="B141" s="17"/>
-      <c r="C141" s="17"/>
+        <f>L$8</f>
+        <v>200</v>
+      </c>
+      <c r="B141" s="17">
+        <v>6.9999999999999998E-9</v>
+      </c>
+      <c r="C141" s="17">
+        <v>6.9999999999999998E-9</v>
+      </c>
       <c r="D141" s="17"/>
       <c r="E141" s="17"/>
       <c r="F141" s="17"/>
@@ -22372,148 +22410,144 @@
       <c r="J141" s="17"/>
       <c r="K141" s="25"/>
     </row>
-    <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="30">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="29">
+        <f>M$8</f>
+        <v>500</v>
+      </c>
+      <c r="B142" s="17">
+        <v>6.9999999999999998E-9</v>
+      </c>
+      <c r="C142" s="17">
+        <v>6.9999999999999998E-9</v>
+      </c>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="17"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="25"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="29">
+        <f>N$8</f>
+        <v>0</v>
+      </c>
+      <c r="B143" s="17"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="25"/>
+    </row>
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="30">
         <f>O$8</f>
         <v>0</v>
       </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="23"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="23"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="23"/>
-      <c r="H142" s="23"/>
-      <c r="I142" s="23"/>
-      <c r="J142" s="23"/>
-      <c r="K142" s="26"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="23"/>
+      <c r="I144" s="23"/>
+      <c r="J144" s="23"/>
+      <c r="K144" s="26"/>
     </row>
-    <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="B150" s="44"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="44"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="44"/>
-      <c r="G150" s="44"/>
-      <c r="H150" s="44"/>
-      <c r="I150" s="44"/>
-      <c r="J150" s="44"/>
-      <c r="K150" s="45"/>
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B152" s="43"/>
+      <c r="C152" s="43"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="43"/>
+      <c r="F152" s="43"/>
+      <c r="G152" s="43"/>
+      <c r="H152" s="43"/>
+      <c r="I152" s="43"/>
+      <c r="J152" s="43"/>
+      <c r="K152" s="44"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B151" s="40" t="s">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B153" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C151" s="41"/>
-      <c r="D151" s="41"/>
-      <c r="E151" s="41"/>
-      <c r="F151" s="41"/>
-      <c r="G151" s="41"/>
-      <c r="H151" s="41"/>
-      <c r="I151" s="41"/>
-      <c r="J151" s="41"/>
-      <c r="K151" s="42"/>
+      <c r="C153" s="46"/>
+      <c r="D153" s="46"/>
+      <c r="E153" s="46"/>
+      <c r="F153" s="46"/>
+      <c r="G153" s="46"/>
+      <c r="H153" s="46"/>
+      <c r="I153" s="46"/>
+      <c r="J153" s="46"/>
+      <c r="K153" s="47"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="32"/>
-      <c r="B152" s="27">
-        <f t="shared" ref="B152" si="53">F$12</f>
+    <row r="154" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="32"/>
+      <c r="B154" s="27">
+        <f t="shared" ref="B154" si="53">F$14</f>
         <v>25</v>
       </c>
-      <c r="C152" s="27">
-        <f t="shared" ref="C152" si="54">G$12</f>
+      <c r="C154" s="27">
+        <f t="shared" ref="C154" si="54">G$14</f>
         <v>125</v>
       </c>
-      <c r="D152" s="27">
-        <f t="shared" ref="D152" si="55">H$12</f>
+      <c r="D154" s="27">
+        <f t="shared" ref="D154" si="55">H$14</f>
         <v>0</v>
       </c>
-      <c r="E152" s="27">
-        <f t="shared" ref="E152" si="56">I$12</f>
+      <c r="E154" s="27">
+        <f t="shared" ref="E154" si="56">I$14</f>
         <v>0</v>
       </c>
-      <c r="F152" s="27">
-        <f t="shared" ref="F152" si="57">J$12</f>
+      <c r="F154" s="27">
+        <f t="shared" ref="F154" si="57">J$14</f>
         <v>0</v>
       </c>
-      <c r="G152" s="27">
-        <f t="shared" ref="G152" si="58">K$12</f>
+      <c r="G154" s="27">
+        <f t="shared" ref="G154" si="58">K$14</f>
         <v>0</v>
       </c>
-      <c r="H152" s="27">
-        <f t="shared" ref="H152" si="59">L$12</f>
+      <c r="H154" s="27">
+        <f t="shared" ref="H154" si="59">L$14</f>
         <v>0</v>
       </c>
-      <c r="I152" s="27">
-        <f t="shared" ref="I152" si="60">M$12</f>
+      <c r="I154" s="27">
+        <f t="shared" ref="I154" si="60">M$14</f>
         <v>0</v>
       </c>
-      <c r="J152" s="27">
-        <f t="shared" ref="J152" si="61">N$12</f>
+      <c r="J154" s="27">
+        <f t="shared" ref="J154" si="61">N$14</f>
         <v>0</v>
       </c>
-      <c r="K152" s="28">
-        <f t="shared" ref="K152" si="62">O$12</f>
+      <c r="K154" s="28">
+        <f t="shared" ref="K154" si="62">O$14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="29">
+    <row r="155" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="29">
         <f>F$8</f>
         <v>0</v>
       </c>
-      <c r="B153" s="17">
+      <c r="B155" s="17">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="C153" s="17">
+      <c r="C155" s="17">
         <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D153" s="17"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="17"/>
-      <c r="G153" s="17"/>
-      <c r="H153" s="17"/>
-      <c r="I153" s="17"/>
-      <c r="J153" s="17"/>
-      <c r="K153" s="25"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="29">
-        <f>G$8</f>
-        <v>1</v>
-      </c>
-      <c r="B154" s="17">
-        <v>4.0000000000000001E-8</v>
-      </c>
-      <c r="C154" s="17">
-        <v>4.0000000000000001E-8</v>
-      </c>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="17"/>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
-      <c r="I154" s="17"/>
-      <c r="J154" s="17"/>
-      <c r="K154" s="25"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="29">
-        <f>H$8</f>
-        <v>10</v>
-      </c>
-      <c r="B155" s="17">
-        <v>1.4999999999999999E-8</v>
-      </c>
-      <c r="C155" s="17">
-        <v>1.4999999999999999E-8</v>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="17"/>
@@ -22526,14 +22560,14 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="29">
-        <f>I$8</f>
-        <v>20</v>
+        <f>G$8</f>
+        <v>1</v>
       </c>
       <c r="B156" s="17">
-        <v>1E-8</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="C156" s="17">
-        <v>1E-8</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="D156" s="17"/>
       <c r="E156" s="17"/>
@@ -22546,14 +22580,14 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="29">
-        <f>J$8</f>
-        <v>50</v>
+        <f>H$8</f>
+        <v>10</v>
       </c>
       <c r="B157" s="17">
-        <v>8.0000000000000003E-10</v>
+        <v>1.4999999999999999E-8</v>
       </c>
       <c r="C157" s="17">
-        <v>8.0000000000000003E-10</v>
+        <v>1.4999999999999999E-8</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="17"/>
@@ -22566,14 +22600,14 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="29">
-        <f>K$8</f>
-        <v>100</v>
+        <f>I$8</f>
+        <v>20</v>
       </c>
       <c r="B158" s="17">
-        <v>3E-10</v>
+        <v>1E-8</v>
       </c>
       <c r="C158" s="17">
-        <v>3E-10</v>
+        <v>1E-8</v>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="17"/>
@@ -22586,14 +22620,14 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="29">
-        <f>L$8</f>
-        <v>200</v>
+        <f>J$8</f>
+        <v>50</v>
       </c>
       <c r="B159" s="17">
-        <v>2.1999999999999999E-10</v>
+        <v>8.0000000000000003E-10</v>
       </c>
       <c r="C159" s="17">
-        <v>2.1999999999999999E-10</v>
+        <v>8.0000000000000003E-10</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="17"/>
@@ -22606,14 +22640,14 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="29">
-        <f>M$8</f>
-        <v>500</v>
+        <f>K$8</f>
+        <v>100</v>
       </c>
       <c r="B160" s="17">
-        <v>2.0000000000000001E-10</v>
+        <v>3E-10</v>
       </c>
       <c r="C160" s="17">
-        <v>2.0000000000000001E-10</v>
+        <v>3E-10</v>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="17"/>
@@ -22626,11 +22660,15 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="29">
-        <f>N$8</f>
-        <v>0</v>
-      </c>
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
+        <f>L$8</f>
+        <v>200</v>
+      </c>
+      <c r="B161" s="17">
+        <v>2.1999999999999999E-10</v>
+      </c>
+      <c r="C161" s="17">
+        <v>2.1999999999999999E-10</v>
+      </c>
       <c r="D161" s="17"/>
       <c r="E161" s="17"/>
       <c r="F161" s="17"/>
@@ -22640,148 +22678,144 @@
       <c r="J161" s="17"/>
       <c r="K161" s="25"/>
     </row>
-    <row r="162" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="30">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="29">
+        <f>M$8</f>
+        <v>500</v>
+      </c>
+      <c r="B162" s="17">
+        <v>2.0000000000000001E-10</v>
+      </c>
+      <c r="C162" s="17">
+        <v>2.0000000000000001E-10</v>
+      </c>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="25"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="29">
+        <f>N$8</f>
+        <v>0</v>
+      </c>
+      <c r="B163" s="17"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="25"/>
+    </row>
+    <row r="164" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="30">
         <f>O$8</f>
         <v>0</v>
       </c>
-      <c r="B162" s="23"/>
-      <c r="C162" s="23"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
-      <c r="F162" s="23"/>
-      <c r="G162" s="23"/>
-      <c r="H162" s="23"/>
-      <c r="I162" s="23"/>
-      <c r="J162" s="23"/>
-      <c r="K162" s="26"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="23"/>
+      <c r="I164" s="23"/>
+      <c r="J164" s="23"/>
+      <c r="K164" s="26"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="43" t="s">
+    <row r="171" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B172" s="43"/>
+      <c r="C172" s="43"/>
+      <c r="D172" s="43"/>
+      <c r="E172" s="43"/>
+      <c r="F172" s="43"/>
+      <c r="G172" s="43"/>
+      <c r="H172" s="43"/>
+      <c r="I172" s="43"/>
+      <c r="J172" s="43"/>
+      <c r="K172" s="44"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B170" s="44"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="44"/>
-      <c r="E170" s="44"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="44"/>
-      <c r="I170" s="44"/>
-      <c r="J170" s="44"/>
-      <c r="K170" s="45"/>
+      <c r="B173" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" s="46"/>
+      <c r="D173" s="46"/>
+      <c r="E173" s="46"/>
+      <c r="F173" s="46"/>
+      <c r="G173" s="46"/>
+      <c r="H173" s="46"/>
+      <c r="I173" s="46"/>
+      <c r="J173" s="46"/>
+      <c r="K173" s="47"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B171" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C171" s="41"/>
-      <c r="D171" s="41"/>
-      <c r="E171" s="41"/>
-      <c r="F171" s="41"/>
-      <c r="G171" s="41"/>
-      <c r="H171" s="41"/>
-      <c r="I171" s="41"/>
-      <c r="J171" s="41"/>
-      <c r="K171" s="42"/>
+    <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="32"/>
+      <c r="B174" s="27">
+        <f t="shared" ref="B174" si="63">F$14</f>
+        <v>25</v>
+      </c>
+      <c r="C174" s="27">
+        <f t="shared" ref="C174" si="64">G$14</f>
+        <v>125</v>
+      </c>
+      <c r="D174" s="27">
+        <f t="shared" ref="D174" si="65">H$14</f>
+        <v>0</v>
+      </c>
+      <c r="E174" s="27">
+        <f t="shared" ref="E174" si="66">I$14</f>
+        <v>0</v>
+      </c>
+      <c r="F174" s="27">
+        <f t="shared" ref="F174" si="67">J$14</f>
+        <v>0</v>
+      </c>
+      <c r="G174" s="27">
+        <f t="shared" ref="G174" si="68">K$14</f>
+        <v>0</v>
+      </c>
+      <c r="H174" s="27">
+        <f t="shared" ref="H174" si="69">L$14</f>
+        <v>0</v>
+      </c>
+      <c r="I174" s="27">
+        <f t="shared" ref="I174" si="70">M$14</f>
+        <v>0</v>
+      </c>
+      <c r="J174" s="27">
+        <f t="shared" ref="J174" si="71">N$14</f>
+        <v>0</v>
+      </c>
+      <c r="K174" s="28">
+        <f t="shared" ref="K174" si="72">O$14</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="172" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="32"/>
-      <c r="B172" s="27">
-        <f t="shared" ref="B172" si="63">F$12</f>
-        <v>25</v>
-      </c>
-      <c r="C172" s="27">
-        <f t="shared" ref="C172" si="64">G$12</f>
-        <v>125</v>
-      </c>
-      <c r="D172" s="27">
-        <f t="shared" ref="D172" si="65">H$12</f>
-        <v>0</v>
-      </c>
-      <c r="E172" s="27">
-        <f t="shared" ref="E172" si="66">I$12</f>
-        <v>0</v>
-      </c>
-      <c r="F172" s="27">
-        <f t="shared" ref="F172" si="67">J$12</f>
-        <v>0</v>
-      </c>
-      <c r="G172" s="27">
-        <f t="shared" ref="G172" si="68">K$12</f>
-        <v>0</v>
-      </c>
-      <c r="H172" s="27">
-        <f t="shared" ref="H172" si="69">L$12</f>
-        <v>0</v>
-      </c>
-      <c r="I172" s="27">
-        <f t="shared" ref="I172" si="70">M$12</f>
-        <v>0</v>
-      </c>
-      <c r="J172" s="27">
-        <f t="shared" ref="J172" si="71">N$12</f>
-        <v>0</v>
-      </c>
-      <c r="K172" s="28">
-        <f t="shared" ref="K172" si="72">O$12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="29">
+    <row r="175" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="29">
         <f>F$8</f>
         <v>0</v>
       </c>
-      <c r="B173" s="17">
+      <c r="B175" s="17">
         <v>1E-8</v>
       </c>
-      <c r="C173" s="17">
+      <c r="C175" s="17">
         <v>1E-8</v>
-      </c>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="17"/>
-      <c r="G173" s="17"/>
-      <c r="H173" s="17"/>
-      <c r="I173" s="17"/>
-      <c r="J173" s="17"/>
-      <c r="K173" s="25"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A174" s="29">
-        <f>G$8</f>
-        <v>1</v>
-      </c>
-      <c r="B174" s="17">
-        <v>5.0000000000000001E-9</v>
-      </c>
-      <c r="C174" s="17">
-        <v>5.0000000000000001E-9</v>
-      </c>
-      <c r="D174" s="17"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="17"/>
-      <c r="G174" s="17"/>
-      <c r="H174" s="17"/>
-      <c r="I174" s="17"/>
-      <c r="J174" s="17"/>
-      <c r="K174" s="25"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175" s="29">
-        <f>H$8</f>
-        <v>10</v>
-      </c>
-      <c r="B175" s="17">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="C175" s="17">
-        <v>1.0000000000000001E-9</v>
       </c>
       <c r="D175" s="17"/>
       <c r="E175" s="17"/>
@@ -22794,14 +22828,14 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="29">
-        <f>I$8</f>
-        <v>20</v>
+        <f>G$8</f>
+        <v>1</v>
       </c>
       <c r="B176" s="17">
-        <v>3E-10</v>
+        <v>5.0000000000000001E-9</v>
       </c>
       <c r="C176" s="17">
-        <v>3E-10</v>
+        <v>5.0000000000000001E-9</v>
       </c>
       <c r="D176" s="17"/>
       <c r="E176" s="17"/>
@@ -22814,14 +22848,14 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="29">
-        <f>J$8</f>
-        <v>50</v>
+        <f>H$8</f>
+        <v>10</v>
       </c>
       <c r="B177" s="17">
-        <v>5.0000000000000002E-11</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="C177" s="17">
-        <v>5.0000000000000002E-11</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="D177" s="17"/>
       <c r="E177" s="17"/>
@@ -22834,14 +22868,14 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="29">
-        <f>K$8</f>
-        <v>100</v>
+        <f>I$8</f>
+        <v>20</v>
       </c>
       <c r="B178" s="17">
-        <v>3.5E-12</v>
+        <v>3E-10</v>
       </c>
       <c r="C178" s="17">
-        <v>3.5E-12</v>
+        <v>3E-10</v>
       </c>
       <c r="D178" s="17"/>
       <c r="E178" s="17"/>
@@ -22854,14 +22888,14 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="29">
-        <f>L$8</f>
-        <v>200</v>
+        <f>J$8</f>
+        <v>50</v>
       </c>
       <c r="B179" s="17">
-        <v>3.5E-12</v>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="C179" s="17">
-        <v>3.5E-12</v>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="D179" s="17"/>
       <c r="E179" s="17"/>
@@ -22874,8 +22908,8 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="29">
-        <f>M$8</f>
-        <v>500</v>
+        <f>K$8</f>
+        <v>100</v>
       </c>
       <c r="B180" s="17">
         <v>3.5E-12</v>
@@ -22894,11 +22928,15 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="29">
-        <f>N$8</f>
-        <v>0</v>
-      </c>
-      <c r="B181" s="17"/>
-      <c r="C181" s="17"/>
+        <f>L$8</f>
+        <v>200</v>
+      </c>
+      <c r="B181" s="17">
+        <v>3.5E-12</v>
+      </c>
+      <c r="C181" s="17">
+        <v>3.5E-12</v>
+      </c>
       <c r="D181" s="17"/>
       <c r="E181" s="17"/>
       <c r="F181" s="17"/>
@@ -22908,278 +22946,76 @@
       <c r="J181" s="17"/>
       <c r="K181" s="25"/>
     </row>
-    <row r="182" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="30">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="29">
+        <f>M$8</f>
+        <v>500</v>
+      </c>
+      <c r="B182" s="17">
+        <v>3.5E-12</v>
+      </c>
+      <c r="C182" s="17">
+        <v>3.5E-12</v>
+      </c>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="17"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="25"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="29">
+        <f>N$8</f>
+        <v>0</v>
+      </c>
+      <c r="B183" s="17"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="17"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+      <c r="K183" s="25"/>
+    </row>
+    <row r="184" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="30">
         <f>O$8</f>
         <v>0</v>
       </c>
-      <c r="B182" s="23"/>
-      <c r="C182" s="23"/>
-      <c r="D182" s="23"/>
-      <c r="E182" s="23"/>
-      <c r="F182" s="23"/>
-      <c r="G182" s="23"/>
-      <c r="H182" s="23"/>
-      <c r="I182" s="23"/>
-      <c r="J182" s="23"/>
-      <c r="K182" s="26"/>
-    </row>
-    <row r="189" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A190" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="B190" s="44"/>
-      <c r="C190" s="44"/>
-      <c r="D190" s="44"/>
-      <c r="E190" s="44"/>
-      <c r="F190" s="44"/>
-      <c r="G190" s="44"/>
-      <c r="H190" s="44"/>
-      <c r="I190" s="44"/>
-      <c r="J190" s="44"/>
-      <c r="K190" s="45"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B191" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C191" s="41"/>
-      <c r="D191" s="41"/>
-      <c r="E191" s="41"/>
-      <c r="F191" s="41"/>
-      <c r="G191" s="41"/>
-      <c r="H191" s="41"/>
-      <c r="I191" s="41"/>
-      <c r="J191" s="41"/>
-      <c r="K191" s="42"/>
-    </row>
-    <row r="192" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="32"/>
-      <c r="B192" s="27">
-        <f t="shared" ref="B192" si="73">F$12</f>
-        <v>25</v>
-      </c>
-      <c r="C192" s="27">
-        <f t="shared" ref="C192" si="74">G$12</f>
-        <v>125</v>
-      </c>
-      <c r="D192" s="27">
-        <f t="shared" ref="D192" si="75">H$12</f>
-        <v>0</v>
-      </c>
-      <c r="E192" s="27">
-        <f t="shared" ref="E192" si="76">I$12</f>
-        <v>0</v>
-      </c>
-      <c r="F192" s="27">
-        <f t="shared" ref="F192" si="77">J$12</f>
-        <v>0</v>
-      </c>
-      <c r="G192" s="27">
-        <f t="shared" ref="G192" si="78">K$12</f>
-        <v>0</v>
-      </c>
-      <c r="H192" s="27">
-        <f t="shared" ref="H192" si="79">L$12</f>
-        <v>0</v>
-      </c>
-      <c r="I192" s="27">
-        <f t="shared" ref="I192" si="80">M$12</f>
-        <v>0</v>
-      </c>
-      <c r="J192" s="27">
-        <f t="shared" ref="J192" si="81">N$12</f>
-        <v>0</v>
-      </c>
-      <c r="K192" s="28">
-        <f t="shared" ref="K192" si="82">O$12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="29">
-        <f>F$14</f>
-        <v>0</v>
-      </c>
-      <c r="B193" s="17"/>
-      <c r="C193" s="17"/>
-      <c r="D193" s="17"/>
-      <c r="E193" s="17"/>
-      <c r="F193" s="17"/>
-      <c r="G193" s="17"/>
-      <c r="H193" s="17"/>
-      <c r="I193" s="17"/>
-      <c r="J193" s="17"/>
-      <c r="K193" s="25"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A194" s="29">
-        <f>G$14</f>
-        <v>0.1</v>
-      </c>
-      <c r="B194" s="17"/>
-      <c r="C194" s="17"/>
-      <c r="D194" s="17"/>
-      <c r="E194" s="17"/>
-      <c r="F194" s="17"/>
-      <c r="G194" s="17"/>
-      <c r="H194" s="17"/>
-      <c r="I194" s="17"/>
-      <c r="J194" s="17"/>
-      <c r="K194" s="25"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A195" s="29">
-        <f>H$14</f>
-        <v>1</v>
-      </c>
-      <c r="B195" s="17"/>
-      <c r="C195" s="17"/>
-      <c r="D195" s="17"/>
-      <c r="E195" s="17"/>
-      <c r="F195" s="17"/>
-      <c r="G195" s="17"/>
-      <c r="H195" s="17"/>
-      <c r="I195" s="17"/>
-      <c r="J195" s="17"/>
-      <c r="K195" s="25"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A196" s="29">
-        <f>I$14</f>
-        <v>5</v>
-      </c>
-      <c r="B196" s="17"/>
-      <c r="C196" s="17"/>
-      <c r="D196" s="17"/>
-      <c r="E196" s="17"/>
-      <c r="F196" s="17"/>
-      <c r="G196" s="17"/>
-      <c r="H196" s="17"/>
-      <c r="I196" s="17"/>
-      <c r="J196" s="17"/>
-      <c r="K196" s="25"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A197" s="29">
-        <f>J$14</f>
-        <v>10</v>
-      </c>
-      <c r="B197" s="17"/>
-      <c r="C197" s="17"/>
-      <c r="D197" s="17"/>
-      <c r="E197" s="17"/>
-      <c r="F197" s="17"/>
-      <c r="G197" s="17"/>
-      <c r="H197" s="17"/>
-      <c r="I197" s="17"/>
-      <c r="J197" s="17"/>
-      <c r="K197" s="25"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A198" s="29">
-        <f>K$14</f>
-        <v>20</v>
-      </c>
-      <c r="B198" s="17"/>
-      <c r="C198" s="17"/>
-      <c r="D198" s="17"/>
-      <c r="E198" s="17"/>
-      <c r="F198" s="17"/>
-      <c r="G198" s="17"/>
-      <c r="H198" s="17"/>
-      <c r="I198" s="17"/>
-      <c r="J198" s="17"/>
-      <c r="K198" s="25"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A199" s="29">
-        <f>L$14</f>
-        <v>40</v>
-      </c>
-      <c r="B199" s="17"/>
-      <c r="C199" s="17"/>
-      <c r="D199" s="17"/>
-      <c r="E199" s="17"/>
-      <c r="F199" s="17"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="17"/>
-      <c r="I199" s="17"/>
-      <c r="J199" s="17"/>
-      <c r="K199" s="25"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A200" s="29">
-        <f>M$14</f>
-        <v>70</v>
-      </c>
-      <c r="B200" s="17"/>
-      <c r="C200" s="17"/>
-      <c r="D200" s="17"/>
-      <c r="E200" s="17"/>
-      <c r="F200" s="17"/>
-      <c r="G200" s="17"/>
-      <c r="H200" s="17"/>
-      <c r="I200" s="17"/>
-      <c r="J200" s="17"/>
-      <c r="K200" s="25"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A201" s="29">
-        <f>N$14</f>
-        <v>100</v>
-      </c>
-      <c r="B201" s="17"/>
-      <c r="C201" s="17"/>
-      <c r="D201" s="17"/>
-      <c r="E201" s="17"/>
-      <c r="F201" s="17"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="17"/>
-      <c r="I201" s="17"/>
-      <c r="J201" s="17"/>
-      <c r="K201" s="25"/>
-    </row>
-    <row r="202" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="30">
-        <f>O$14</f>
-        <v>0</v>
-      </c>
-      <c r="B202" s="23"/>
-      <c r="C202" s="23"/>
-      <c r="D202" s="23"/>
-      <c r="E202" s="23"/>
-      <c r="F202" s="23"/>
-      <c r="G202" s="23"/>
-      <c r="H202" s="23"/>
-      <c r="I202" s="23"/>
-      <c r="J202" s="23"/>
-      <c r="K202" s="26"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="23"/>
+      <c r="F184" s="23"/>
+      <c r="G184" s="23"/>
+      <c r="H184" s="23"/>
+      <c r="I184" s="23"/>
+      <c r="J184" s="23"/>
+      <c r="K184" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A130:K130"/>
-    <mergeCell ref="B131:K131"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="B71:K71"/>
-    <mergeCell ref="A90:K90"/>
-    <mergeCell ref="B91:K91"/>
-    <mergeCell ref="A110:K110"/>
-    <mergeCell ref="B111:K111"/>
-    <mergeCell ref="B191:K191"/>
-    <mergeCell ref="A150:K150"/>
-    <mergeCell ref="B151:K151"/>
-    <mergeCell ref="A170:K170"/>
-    <mergeCell ref="B171:K171"/>
-    <mergeCell ref="A190:K190"/>
+  <mergeCells count="16">
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="B113:K113"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A152:K152"/>
+    <mergeCell ref="B153:K153"/>
+    <mergeCell ref="A172:K172"/>
+    <mergeCell ref="B173:K173"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="B133:K133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23191,7 +23027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF10A5AF-6534-4D65-85BA-4292797F34F0}">
   <dimension ref="A1:P175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -23217,7 +23053,7 @@
       <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="40" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -23256,7 +23092,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -23264,10 +23100,10 @@
       <c r="D2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="41">
         <v>0.02</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="17">
         <v>0.02</v>
       </c>
       <c r="G2" s="17"/>
@@ -23288,7 +23124,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -23299,7 +23135,7 @@
       <c r="E3" s="16">
         <v>0.1</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="17">
         <v>0.1</v>
       </c>
       <c r="G3" s="17"/>
@@ -23320,7 +23156,7 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
@@ -23331,7 +23167,7 @@
       <c r="E4" s="16">
         <v>0.02</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="17">
         <v>0.02</v>
       </c>
       <c r="G4" s="17"/>
@@ -23347,7 +23183,7 @@
         <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -23358,7 +23194,7 @@
       <c r="E5" s="16">
         <v>0.1</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="17">
         <v>0.1</v>
       </c>
       <c r="G5" s="17"/>
@@ -23374,7 +23210,7 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -23406,7 +23242,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>

--- a/para/Swi/Matlab_IGBT.xlsx
+++ b/para/Swi/Matlab_IGBT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/02_Herts/03_VRF/23_PE/05_PWM_Losses/para/Swi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/Swi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1395" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92F04D66-0CA4-4CE0-9BDD-4CB05083993B}"/>
+  <xr:revisionPtr revIDLastSave="1459" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E2F8AFC-F7B9-495A-B7D3-FA8E8CCB37B9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,18 +493,6 @@
     <t>If</t>
   </si>
   <si>
-    <t>Maximum rated blocking voltage, e.g. Vce,max or Vds, max</t>
-  </si>
-  <si>
-    <t>Vmax</t>
-  </si>
-  <si>
-    <t>maximum rated channel current, e.g. Ice,max or Ids,max</t>
-  </si>
-  <si>
-    <t>Imax</t>
-  </si>
-  <si>
     <t>Off-State blocking voltage</t>
   </si>
   <si>
@@ -523,10 +511,22 @@
     <t>Gate resistance</t>
   </si>
   <si>
-    <t>Gate resistance of the FET</t>
+    <t>Rg</t>
   </si>
   <si>
-    <t>Rg</t>
+    <t>Rated blocking voltage, e.g. Vce or Vds, used for linearly scaling switching losses</t>
+  </si>
+  <si>
+    <t>Vnom</t>
+  </si>
+  <si>
+    <t>Gate resistance of FET</t>
+  </si>
+  <si>
+    <t>Rated channel current, e.g. Ice or Ids, used for linearly scaling switching losses</t>
+  </si>
+  <si>
+    <t>Inom</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -900,12 +900,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -956,6 +967,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5917,28 +5929,28 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5956,24 +5968,27 @@
                   <c:v>3.1E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2.1000000000000002E-5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>4.1999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3999999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2.1000000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.2999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7099999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.078E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -6037,28 +6052,28 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6076,24 +6091,27 @@
                   <c:v>4.1000000000000006E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8.1999999999999994E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4.2999999999999995E-5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>8.6000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.01E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.9000000000000005E-4</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.7000000000000007E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5400000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2699999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.0800000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -6157,28 +6175,28 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6250,28 +6268,28 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6343,28 +6361,28 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6436,28 +6454,28 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6535,28 +6553,28 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6634,28 +6652,28 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6733,28 +6751,28 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6832,28 +6850,28 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7324,34 +7342,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7363,30 +7381,33 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.1499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.25</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.75</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.85</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -7444,34 +7465,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7483,30 +7504,33 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.57999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.68</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.38</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.77</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.27</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.7</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>12.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -7564,34 +7588,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7657,34 +7681,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7750,34 +7774,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7843,34 +7867,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7942,34 +7966,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8041,34 +8065,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8140,34 +8164,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8239,34 +8263,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19946,13 +19970,13 @@
   <dimension ref="A1:Q184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="A7" sqref="A7:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="109.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -20163,16 +20187,16 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E7" s="16">
         <v>300</v>
@@ -20269,16 +20293,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E10" s="16">
         <v>15</v>
@@ -20359,16 +20383,16 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
         <v>160</v>
-      </c>
-      <c r="B13" t="s">
-        <v>161</v>
       </c>
       <c r="C13" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E13" s="16">
         <v>4</v>
@@ -20423,16 +20447,16 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>98</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E15" s="16">
         <v>600</v>
@@ -20515,34 +20539,36 @@
       <c r="E17" s="16">
         <v>0.5</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
         <v>0.1</v>
       </c>
-      <c r="G17" s="17">
+      <c r="H17" s="17">
         <v>0.2</v>
       </c>
-      <c r="H17" s="17">
+      <c r="I17" s="17">
         <v>0.5</v>
       </c>
-      <c r="I17" s="17">
+      <c r="J17" s="17">
         <v>1</v>
       </c>
-      <c r="J17" s="17">
+      <c r="K17" s="17">
         <v>2</v>
       </c>
-      <c r="K17" s="17">
+      <c r="L17" s="17">
         <v>4</v>
       </c>
-      <c r="L17" s="17">
+      <c r="M17" s="17">
         <v>7</v>
       </c>
-      <c r="M17" s="17">
+      <c r="N17" s="17">
         <v>10</v>
       </c>
-      <c r="N17" s="17">
+      <c r="O17" s="17">
         <v>100</v>
       </c>
-      <c r="O17" s="21"/>
       <c r="P17" s="5" t="s">
         <v>18</v>
       </c>
@@ -20823,36 +20849,36 @@
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="48"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
@@ -21095,36 +21121,36 @@
     </row>
     <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="45"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="48"/>
     </row>
     <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="33"/>
@@ -21367,36 +21393,36 @@
     </row>
     <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="45"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="48"/>
     </row>
     <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
@@ -21639,36 +21665,36 @@
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
-      <c r="K92" s="44"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="45"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="46"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="46"/>
-      <c r="J93" s="46"/>
-      <c r="K93" s="47"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="48"/>
     </row>
     <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="32"/>
@@ -21715,7 +21741,7 @@
     </row>
     <row r="95" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
-        <f>F$16</f>
+        <f>F$17</f>
         <v>0</v>
       </c>
       <c r="B95" s="17">
@@ -21735,7 +21761,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="29">
-        <f>G$16</f>
+        <f>G$17</f>
         <v>0.1</v>
       </c>
       <c r="B96" s="17">
@@ -21755,14 +21781,14 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="29">
-        <f>H$16</f>
-        <v>1</v>
+        <f>H$17</f>
+        <v>0.2</v>
       </c>
       <c r="B97" s="17">
-        <v>2.1000000000000002E-5</v>
+        <v>6.1999999999999999E-6</v>
       </c>
       <c r="C97" s="17">
-        <v>4.2999999999999995E-5</v>
+        <v>8.1999999999999994E-6</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
@@ -21775,14 +21801,14 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="29">
-        <f>I$16</f>
-        <v>5</v>
+        <f>I$17</f>
+        <v>0.5</v>
       </c>
       <c r="B98" s="17">
-        <v>1.1E-4</v>
+        <v>6.4999999999999996E-6</v>
       </c>
       <c r="C98" s="17">
-        <v>2.0000000000000001E-4</v>
+        <v>2.05E-5</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
@@ -21795,14 +21821,14 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
-        <f>J$16</f>
-        <v>10</v>
+        <f>J$17</f>
+        <v>1</v>
       </c>
       <c r="B99" s="17">
-        <v>2.1000000000000001E-4</v>
+        <v>2.1000000000000002E-5</v>
       </c>
       <c r="C99" s="17">
-        <v>3.9000000000000005E-4</v>
+        <v>4.2999999999999995E-5</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
@@ -21815,14 +21841,14 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="29">
-        <f>K$16</f>
-        <v>20</v>
+        <f>K$17</f>
+        <v>2</v>
       </c>
       <c r="B100" s="17">
-        <v>4.2999999999999999E-4</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="C100" s="17">
-        <v>7.7000000000000007E-4</v>
+        <v>8.6000000000000003E-5</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
@@ -21835,14 +21861,14 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
-        <f>L$16</f>
-        <v>40</v>
+        <f>L$17</f>
+        <v>4</v>
       </c>
       <c r="B101" s="17">
-        <v>9.8999999999999999E-4</v>
+        <v>8.3999999999999995E-5</v>
       </c>
       <c r="C101" s="17">
-        <v>1.5400000000000001E-3</v>
+        <v>1.7200000000000001E-4</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
@@ -21855,14 +21881,14 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="29">
-        <f>M$16</f>
-        <v>70</v>
+        <f>M$17</f>
+        <v>7</v>
       </c>
       <c r="B102" s="17">
-        <v>1.7099999999999999E-3</v>
+        <v>1.7699999999999999E-4</v>
       </c>
       <c r="C102" s="17">
-        <v>2.2699999999999999E-3</v>
+        <v>3.01E-4</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="17"/>
@@ -21875,14 +21901,14 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
-        <f>N$16</f>
-        <v>100</v>
+        <f>N$17</f>
+        <v>10</v>
       </c>
       <c r="B103" s="17">
-        <v>3.078E-3</v>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="C103" s="17">
-        <v>4.0800000000000003E-3</v>
+        <v>3.9000000000000005E-4</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="17"/>
@@ -21895,11 +21921,15 @@
     </row>
     <row r="104" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="30">
-        <f>O$16</f>
-        <v>0</v>
-      </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
+        <f>O$17</f>
+        <v>100</v>
+      </c>
+      <c r="B104" s="23">
+        <v>3.078E-3</v>
+      </c>
+      <c r="C104" s="23">
+        <v>4.0800000000000003E-3</v>
+      </c>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
       <c r="F104" s="23"/>
@@ -21911,37 +21941,37 @@
     </row>
     <row r="111" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B112" s="43"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="43"/>
-      <c r="K112" s="44"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="44"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="44"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
+      <c r="K112" s="45"/>
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B113" s="45" t="s">
+      <c r="B113" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="46"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="46"/>
-      <c r="K113" s="47"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="47"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="47"/>
+      <c r="K113" s="48"/>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21991,13 +22021,13 @@
     <row r="115" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A115" s="29">
         <f>F$17</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B115" s="17">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C115" s="17">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="17"/>
@@ -22012,13 +22042,13 @@
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="29">
         <f>G$17</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="B116" s="17">
-        <v>1.1499999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="C116" s="17">
-        <v>0.68</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="17"/>
@@ -22033,13 +22063,13 @@
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <f>H$17</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="B117" s="17">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C117" s="17">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="17"/>
@@ -22054,13 +22084,13 @@
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="29">
         <f>I$17</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B118" s="17">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C118" s="17">
-        <v>1.1000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
@@ -22075,13 +22105,13 @@
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="29">
         <f>J$17</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" s="17">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="C119" s="17">
-        <v>1.38</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="17"/>
@@ -22096,13 +22126,13 @@
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="29">
         <f>K$17</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B120" s="17">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="C120" s="17">
-        <v>1.77</v>
+        <v>1.38</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="17"/>
@@ -22117,13 +22147,13 @@
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <f>L$17</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B121" s="17">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="C121" s="17">
-        <v>2.27</v>
+        <v>1.77</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
@@ -22138,13 +22168,13 @@
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="29">
         <f>M$17</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B122" s="17">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="C122" s="17">
-        <v>2.7</v>
+        <v>2.27</v>
       </c>
       <c r="D122" s="17"/>
       <c r="E122" s="17"/>
@@ -22159,13 +22189,13 @@
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <f>N$17</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B123" s="17">
-        <v>10</v>
+        <v>2.85</v>
       </c>
       <c r="C123" s="17">
-        <v>12.9</v>
+        <v>2.7</v>
       </c>
       <c r="D123" s="17"/>
       <c r="E123" s="17"/>
@@ -22180,10 +22210,14 @@
     <row r="124" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="30">
         <f>O$17</f>
-        <v>0</v>
-      </c>
-      <c r="B124" s="23"/>
-      <c r="C124" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="B124" s="42">
+        <v>10</v>
+      </c>
+      <c r="C124" s="23">
+        <v>12.9</v>
+      </c>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
       <c r="F124" s="23"/>
@@ -22196,36 +22230,36 @@
     </row>
     <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="42" t="s">
+      <c r="A132" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="B132" s="43"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="43"/>
-      <c r="F132" s="43"/>
-      <c r="G132" s="43"/>
-      <c r="H132" s="43"/>
-      <c r="I132" s="43"/>
-      <c r="J132" s="43"/>
-      <c r="K132" s="44"/>
+      <c r="B132" s="44"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="44"/>
+      <c r="E132" s="44"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="44"/>
+      <c r="I132" s="44"/>
+      <c r="J132" s="44"/>
+      <c r="K132" s="45"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="45" t="s">
+      <c r="B133" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C133" s="46"/>
-      <c r="D133" s="46"/>
-      <c r="E133" s="46"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="46"/>
-      <c r="I133" s="46"/>
-      <c r="J133" s="46"/>
-      <c r="K133" s="47"/>
+      <c r="C133" s="47"/>
+      <c r="D133" s="47"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="47"/>
+      <c r="I133" s="47"/>
+      <c r="J133" s="47"/>
+      <c r="K133" s="48"/>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="32"/>
@@ -22464,36 +22498,36 @@
     </row>
     <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="42" t="s">
+      <c r="A152" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="B152" s="43"/>
-      <c r="C152" s="43"/>
-      <c r="D152" s="43"/>
-      <c r="E152" s="43"/>
-      <c r="F152" s="43"/>
-      <c r="G152" s="43"/>
-      <c r="H152" s="43"/>
-      <c r="I152" s="43"/>
-      <c r="J152" s="43"/>
-      <c r="K152" s="44"/>
+      <c r="B152" s="44"/>
+      <c r="C152" s="44"/>
+      <c r="D152" s="44"/>
+      <c r="E152" s="44"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="44"/>
+      <c r="H152" s="44"/>
+      <c r="I152" s="44"/>
+      <c r="J152" s="44"/>
+      <c r="K152" s="45"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B153" s="45" t="s">
+      <c r="B153" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C153" s="46"/>
-      <c r="D153" s="46"/>
-      <c r="E153" s="46"/>
-      <c r="F153" s="46"/>
-      <c r="G153" s="46"/>
-      <c r="H153" s="46"/>
-      <c r="I153" s="46"/>
-      <c r="J153" s="46"/>
-      <c r="K153" s="47"/>
+      <c r="C153" s="47"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="47"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="47"/>
+      <c r="I153" s="47"/>
+      <c r="J153" s="47"/>
+      <c r="K153" s="48"/>
     </row>
     <row r="154" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="32"/>
@@ -22732,36 +22766,36 @@
     </row>
     <row r="171" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="42" t="s">
+      <c r="A172" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="B172" s="43"/>
-      <c r="C172" s="43"/>
-      <c r="D172" s="43"/>
-      <c r="E172" s="43"/>
-      <c r="F172" s="43"/>
-      <c r="G172" s="43"/>
-      <c r="H172" s="43"/>
-      <c r="I172" s="43"/>
-      <c r="J172" s="43"/>
-      <c r="K172" s="44"/>
+      <c r="B172" s="44"/>
+      <c r="C172" s="44"/>
+      <c r="D172" s="44"/>
+      <c r="E172" s="44"/>
+      <c r="F172" s="44"/>
+      <c r="G172" s="44"/>
+      <c r="H172" s="44"/>
+      <c r="I172" s="44"/>
+      <c r="J172" s="44"/>
+      <c r="K172" s="45"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B173" s="45" t="s">
+      <c r="B173" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C173" s="46"/>
-      <c r="D173" s="46"/>
-      <c r="E173" s="46"/>
-      <c r="F173" s="46"/>
-      <c r="G173" s="46"/>
-      <c r="H173" s="46"/>
-      <c r="I173" s="46"/>
-      <c r="J173" s="46"/>
-      <c r="K173" s="47"/>
+      <c r="C173" s="47"/>
+      <c r="D173" s="47"/>
+      <c r="E173" s="47"/>
+      <c r="F173" s="47"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="47"/>
+      <c r="I173" s="47"/>
+      <c r="J173" s="47"/>
+      <c r="K173" s="48"/>
     </row>
     <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="32"/>
